--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0AE654-7800-4A63-89AC-15A680BD9A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9D16B-4F56-4EFF-A601-F47EC5CB40AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1410" windowWidth="30945" windowHeight="14385" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="将星録" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1882">
   <si>
     <t>和田</t>
   </si>
@@ -5598,6 +5598,153 @@
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女中その１</t>
+  </si>
+  <si>
+    <t>女中その２</t>
+  </si>
+  <si>
+    <t>僧侶　天室光育　東大寺坊主　無辺　桑実寺住職</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山科言継</t>
+  </si>
+  <si>
+    <t>菊亭晴季</t>
+  </si>
+  <si>
+    <t>勧修寺晴豊</t>
+  </si>
+  <si>
+    <t>バリニャーノ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南光坊天海</t>
+  </si>
+  <si>
+    <t>小真木源太　毛利新助　竹中家家臣　斎藤家家臣　溝尾庄兵衛　伊達家家臣　役人</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>猪子兵助　大西十兵衛　坪内石斎　岡部又右衛門　野中重政　伊東マンショ　原マルチノ　二本松家家臣　木村常陸介</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>源頼朝</t>
+  </si>
+  <si>
+    <t>鍛冶屋五兵衛</t>
+  </si>
+  <si>
+    <t>=758</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1553 正徳寺の会見　猪子兵助</t>
+  </si>
+  <si>
+    <t>1554 謀略の三巴　なし</t>
+  </si>
+  <si>
+    <t>1554 新宮党事件　大西十兵衛</t>
+  </si>
+  <si>
+    <t>1556 若き国主の苦悩　天室光育</t>
+  </si>
+  <si>
+    <t>1556 斎藤家親子の相克　猪子兵助　小真木源太</t>
+  </si>
+  <si>
+    <t>1557 三矢の訓え　なし</t>
+  </si>
+  <si>
+    <t>1560 桶狭間の合戦　毛利新助</t>
+  </si>
+  <si>
+    <t>1561 関東管領就任　なし</t>
+  </si>
+  <si>
+    <t>1562 清洲同盟　なし</t>
+  </si>
+  <si>
+    <t>1564 今孔明の知略　竹中家家臣　斎藤家家臣</t>
+  </si>
+  <si>
+    <t>1564 武田家親子の相克　なし</t>
+  </si>
+  <si>
+    <t>1567 岐阜城改名　なし</t>
+  </si>
+  <si>
+    <t>1568 信長の料理の好み　坪内石斎</t>
+  </si>
+  <si>
+    <t>1569 南蛮の英知（置時計編）　フロイス</t>
+  </si>
+  <si>
+    <t>1569 南蛮の英知（地球儀編）　フロイス</t>
+  </si>
+  <si>
+    <t>1571 津軽争乱　なし</t>
+  </si>
+  <si>
+    <t>1574 蘭奢待拝領　東大寺坊主</t>
+  </si>
+  <si>
+    <t>1576 安土城築城開始　岡部又右衛門</t>
+  </si>
+  <si>
+    <t>安土城完成　岡部又右衛門</t>
+  </si>
+  <si>
+    <t>安土城築城中止　岡部又右衛門</t>
+  </si>
+  <si>
+    <t>1579 家康苦悩の選択　野中重政</t>
+  </si>
+  <si>
+    <t>1580 信長と無辺　無辺</t>
+  </si>
+  <si>
+    <t>1581 竹生島の悲劇　女中その１　女中その２　桑実寺住職</t>
+  </si>
+  <si>
+    <t>1582 天正遣欧少年使節　伊東マンショ　原マルチノ　バリニャーノ</t>
+  </si>
+  <si>
+    <t>1582 本能寺の変（通常バージョン）　溝尾庄兵衛</t>
+  </si>
+  <si>
+    <t>1582 本能寺の変（南光坊天海バージョン）　溝尾庄兵衛</t>
+  </si>
+  <si>
+    <t>1585 人取橋の別離　二本松家家臣　伊達家家臣</t>
+  </si>
+  <si>
+    <t>黒衣の宰相　南光坊天海</t>
+  </si>
+  <si>
+    <t>1590 天下友達　源頼朝</t>
+  </si>
+  <si>
+    <t>1594 五右衛門釜ゆで　木村常陸介　役人</t>
+  </si>
+  <si>
+    <t>1596 まことの黒田武士　なし</t>
+  </si>
+  <si>
+    <t>真田十勇士集結　なし</t>
+  </si>
+  <si>
+    <t>鉄砲鍛冶村の収入が多いとき　鍛冶屋五兵衛</t>
   </si>
 </sst>
 </file>
@@ -5649,12 +5796,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5663,7 +5890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5714,6 +5941,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6062,10 +6328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AM745"/>
+  <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A730" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K802" sqref="K802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6073,7 +6339,7 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="9" max="9" width="2.875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
@@ -59061,8 +59327,11 @@
       <c r="E720" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F720" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>720</v>
       </c>
@@ -59075,8 +59344,11 @@
       <c r="E721" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F721" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>721</v>
       </c>
@@ -59090,7 +59362,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>722</v>
       </c>
@@ -59104,7 +59376,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>723</v>
       </c>
@@ -59118,7 +59390,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>724</v>
       </c>
@@ -59132,7 +59404,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>725</v>
       </c>
@@ -59146,7 +59418,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>726</v>
       </c>
@@ -59160,7 +59432,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>727</v>
       </c>
@@ -59174,7 +59446,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>728</v>
       </c>
@@ -59188,7 +59460,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>729</v>
       </c>
@@ -59202,7 +59474,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>730</v>
       </c>
@@ -59216,7 +59488,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>731</v>
       </c>
@@ -59230,7 +59502,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>732</v>
       </c>
@@ -59244,7 +59516,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>733</v>
       </c>
@@ -59258,7 +59530,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>734</v>
       </c>
@@ -59272,7 +59544,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>735</v>
       </c>
@@ -59412,10 +59684,559 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B746">
+        <v>742</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B747">
+        <v>743</v>
+      </c>
+      <c r="D747" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B748">
+        <v>744</v>
+      </c>
+      <c r="D748" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B749">
+        <v>745</v>
+      </c>
+      <c r="D749" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B750">
+        <v>746</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B751">
+        <v>747</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B752">
+        <v>748</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="753" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B753">
+        <v>749</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="754" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B754">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="755" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B755">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="756" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B756">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="757" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B757">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="758" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B758">
+        <v>754</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="759" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B759">
+        <v>755</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="760" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B760">
+        <v>756</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="761" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B761">
+        <v>757</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="762" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B762">
+        <v>758</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="763" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B763">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="764" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B764">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="765" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B765">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="766" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B766">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="767" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B767">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="768" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B768">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="769" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B769">
+        <v>765</v>
+      </c>
+      <c r="D769" s="17" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="770" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B770">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="771" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B771">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="772" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B772">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="773" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B773">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="774" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="775" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D775" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E775" s="21"/>
+      <c r="F775" s="21"/>
+      <c r="G775" s="22"/>
+      <c r="H775" s="22"/>
+      <c r="I775" s="22"/>
+      <c r="J775" s="23"/>
+    </row>
+    <row r="776" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D776" s="24" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E776" s="18"/>
+      <c r="F776" s="18"/>
+      <c r="G776" s="19"/>
+      <c r="H776" s="19"/>
+      <c r="I776" s="19"/>
+      <c r="J776" s="25"/>
+    </row>
+    <row r="777" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D777" s="24" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E777" s="18"/>
+      <c r="F777" s="18"/>
+      <c r="G777" s="19"/>
+      <c r="H777" s="19"/>
+      <c r="I777" s="19"/>
+      <c r="J777" s="25"/>
+    </row>
+    <row r="778" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D778" s="24" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E778" s="18"/>
+      <c r="F778" s="18"/>
+      <c r="G778" s="19"/>
+      <c r="H778" s="19"/>
+      <c r="I778" s="19"/>
+      <c r="J778" s="25"/>
+    </row>
+    <row r="779" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D779" s="24" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E779" s="18"/>
+      <c r="F779" s="18"/>
+      <c r="G779" s="19"/>
+      <c r="H779" s="19"/>
+      <c r="I779" s="19"/>
+      <c r="J779" s="25"/>
+    </row>
+    <row r="780" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D780" s="24" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E780" s="18"/>
+      <c r="F780" s="18"/>
+      <c r="G780" s="19"/>
+      <c r="H780" s="19"/>
+      <c r="I780" s="19"/>
+      <c r="J780" s="25"/>
+    </row>
+    <row r="781" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D781" s="24" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E781" s="18"/>
+      <c r="F781" s="18"/>
+      <c r="G781" s="19"/>
+      <c r="H781" s="19"/>
+      <c r="I781" s="19"/>
+      <c r="J781" s="25"/>
+    </row>
+    <row r="782" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D782" s="24" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E782" s="18"/>
+      <c r="F782" s="18"/>
+      <c r="G782" s="19"/>
+      <c r="H782" s="19"/>
+      <c r="I782" s="19"/>
+      <c r="J782" s="25"/>
+    </row>
+    <row r="783" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D783" s="24" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E783" s="18"/>
+      <c r="F783" s="18"/>
+      <c r="G783" s="19"/>
+      <c r="H783" s="19"/>
+      <c r="I783" s="19"/>
+      <c r="J783" s="25"/>
+    </row>
+    <row r="784" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D784" s="24" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E784" s="18"/>
+      <c r="F784" s="18"/>
+      <c r="G784" s="19"/>
+      <c r="H784" s="19"/>
+      <c r="I784" s="19"/>
+      <c r="J784" s="25"/>
+    </row>
+    <row r="785" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D785" s="24" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E785" s="18"/>
+      <c r="F785" s="18"/>
+      <c r="G785" s="19"/>
+      <c r="H785" s="19"/>
+      <c r="I785" s="19"/>
+      <c r="J785" s="25"/>
+    </row>
+    <row r="786" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D786" s="24" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E786" s="18"/>
+      <c r="F786" s="18"/>
+      <c r="G786" s="19"/>
+      <c r="H786" s="19"/>
+      <c r="I786" s="19"/>
+      <c r="J786" s="25"/>
+    </row>
+    <row r="787" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D787" s="24" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E787" s="18"/>
+      <c r="F787" s="18"/>
+      <c r="G787" s="19"/>
+      <c r="H787" s="19"/>
+      <c r="I787" s="19"/>
+      <c r="J787" s="25"/>
+    </row>
+    <row r="788" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D788" s="24" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E788" s="18"/>
+      <c r="F788" s="18"/>
+      <c r="G788" s="19"/>
+      <c r="H788" s="19"/>
+      <c r="I788" s="19"/>
+      <c r="J788" s="25"/>
+    </row>
+    <row r="789" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D789" s="24" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E789" s="18"/>
+      <c r="F789" s="18"/>
+      <c r="G789" s="19"/>
+      <c r="H789" s="19"/>
+      <c r="I789" s="19"/>
+      <c r="J789" s="25"/>
+    </row>
+    <row r="790" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D790" s="24" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E790" s="18"/>
+      <c r="F790" s="18"/>
+      <c r="G790" s="19"/>
+      <c r="H790" s="19"/>
+      <c r="I790" s="19"/>
+      <c r="J790" s="25"/>
+    </row>
+    <row r="791" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D791" s="24" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E791" s="18"/>
+      <c r="F791" s="18"/>
+      <c r="G791" s="19"/>
+      <c r="H791" s="19"/>
+      <c r="I791" s="19"/>
+      <c r="J791" s="25"/>
+    </row>
+    <row r="792" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D792" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E792" s="18"/>
+      <c r="F792" s="18"/>
+      <c r="G792" s="19"/>
+      <c r="H792" s="19"/>
+      <c r="I792" s="19"/>
+      <c r="J792" s="25"/>
+    </row>
+    <row r="793" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D793" s="24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E793" s="18"/>
+      <c r="F793" s="18"/>
+      <c r="G793" s="19"/>
+      <c r="H793" s="19"/>
+      <c r="I793" s="19"/>
+      <c r="J793" s="25"/>
+    </row>
+    <row r="794" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D794" s="24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E794" s="18"/>
+      <c r="F794" s="18"/>
+      <c r="G794" s="19"/>
+      <c r="H794" s="19"/>
+      <c r="I794" s="19"/>
+      <c r="J794" s="25"/>
+    </row>
+    <row r="795" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D795" s="24" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E795" s="18"/>
+      <c r="F795" s="18"/>
+      <c r="G795" s="19"/>
+      <c r="H795" s="19"/>
+      <c r="I795" s="19"/>
+      <c r="J795" s="25"/>
+    </row>
+    <row r="796" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D796" s="24" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E796" s="18"/>
+      <c r="F796" s="18"/>
+      <c r="G796" s="19"/>
+      <c r="H796" s="19"/>
+      <c r="I796" s="19"/>
+      <c r="J796" s="25"/>
+    </row>
+    <row r="797" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D797" s="24" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E797" s="18"/>
+      <c r="F797" s="18"/>
+      <c r="G797" s="19"/>
+      <c r="H797" s="19"/>
+      <c r="I797" s="19"/>
+      <c r="J797" s="25"/>
+    </row>
+    <row r="798" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D798" s="24" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E798" s="18"/>
+      <c r="F798" s="18"/>
+      <c r="G798" s="19"/>
+      <c r="H798" s="19"/>
+      <c r="I798" s="19"/>
+      <c r="J798" s="25"/>
+    </row>
+    <row r="799" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D799" s="24" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E799" s="18"/>
+      <c r="F799" s="18"/>
+      <c r="G799" s="19"/>
+      <c r="H799" s="19"/>
+      <c r="I799" s="19"/>
+      <c r="J799" s="25"/>
+    </row>
+    <row r="800" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D800" s="24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E800" s="18"/>
+      <c r="F800" s="18"/>
+      <c r="G800" s="19"/>
+      <c r="H800" s="19"/>
+      <c r="I800" s="19"/>
+      <c r="J800" s="25"/>
+    </row>
+    <row r="801" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D801" s="24" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E801" s="18"/>
+      <c r="F801" s="18"/>
+      <c r="G801" s="19"/>
+      <c r="H801" s="19"/>
+      <c r="I801" s="19"/>
+      <c r="J801" s="25"/>
+    </row>
+    <row r="802" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D802" s="24" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E802" s="18"/>
+      <c r="F802" s="18"/>
+      <c r="G802" s="19"/>
+      <c r="H802" s="19"/>
+      <c r="I802" s="19"/>
+      <c r="J802" s="25"/>
+    </row>
+    <row r="803" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D803" s="24" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E803" s="18"/>
+      <c r="F803" s="18"/>
+      <c r="G803" s="19"/>
+      <c r="H803" s="19"/>
+      <c r="I803" s="19"/>
+      <c r="J803" s="25"/>
+    </row>
+    <row r="804" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D804" s="24" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E804" s="18"/>
+      <c r="F804" s="18"/>
+      <c r="G804" s="19"/>
+      <c r="H804" s="19"/>
+      <c r="I804" s="19"/>
+      <c r="J804" s="25"/>
+    </row>
+    <row r="805" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D805" s="24" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E805" s="18"/>
+      <c r="F805" s="18"/>
+      <c r="G805" s="19"/>
+      <c r="H805" s="19"/>
+      <c r="I805" s="19"/>
+      <c r="J805" s="25"/>
+    </row>
+    <row r="806" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D806" s="24" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E806" s="18"/>
+      <c r="F806" s="18"/>
+      <c r="G806" s="19"/>
+      <c r="H806" s="19"/>
+      <c r="I806" s="19"/>
+      <c r="J806" s="25"/>
+    </row>
+    <row r="807" spans="4:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D807" s="26" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E807" s="27"/>
+      <c r="F807" s="27"/>
+      <c r="G807" s="28"/>
+      <c r="H807" s="28"/>
+      <c r="I807" s="28"/>
+      <c r="J807" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9D16B-4F56-4EFF-A601-F47EC5CB40AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="将星録" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="1883">
   <si>
     <t>和田</t>
   </si>
@@ -5746,12 +5745,31 @@
   <si>
     <t>鉄砲鍛冶村の収入が多いとき　鍛冶屋五兵衛</t>
   </si>
+  <si>
+    <t>木造長政（長正）のこと、同姓同名別人に注意</t>
+    <rPh sb="0" eb="2">
+      <t>キヅク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ドウセイドウメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ベツジン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6326,20 +6344,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K802" sqref="K802"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="9" max="9" width="2.875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
@@ -6358,7 +6376,7 @@
     <col min="34" max="38" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>1833</v>
       </c>
@@ -6459,7 +6477,7 @@
       </c>
       <c r="AM1" s="6"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6547,7 +6565,7 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6621,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6695,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6772,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6849,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6923,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7000,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7077,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7154,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7228,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7305,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7382,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7456,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7530,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7604,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7752,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7829,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7906,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7983,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8057,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8131,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8208,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8285,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8365,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8445,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8522,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8599,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8673,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8747,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8824,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8898,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8972,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9049,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9123,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9197,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9268,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9339,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9413,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9487,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9564,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9641,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9715,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9789,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9866,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9940,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10017,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10091,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10162,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10236,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10310,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10384,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10458,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10532,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10606,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10683,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10757,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10828,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10902,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11047,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11121,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11195,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11272,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11346,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11420,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11494,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11571,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11648,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11722,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11796,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11873,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11947,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12024,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12101,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12178,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12258,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12335,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12409,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12486,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12563,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12640,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12714,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12788,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12862,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12936,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13010,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13084,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13158,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13232,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13306,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13380,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13454,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13528,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13602,7 +13620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:32">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13676,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:32">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13750,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:32">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13821,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:32">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13895,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:32">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13966,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:32">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14037,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:32">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14111,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:32">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14185,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:32">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14259,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:32">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14333,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:32">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14407,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:32">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14481,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:32">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14555,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:32">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14629,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:32">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14703,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:32">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14774,7 +14792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:38">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14848,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:38">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14922,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:38">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14999,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:38">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15076,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:38">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15150,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:38">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15224,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:38">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15298,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:38">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15372,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:38">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15446,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:38">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15517,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:38">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15591,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:38">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15671,7 +15689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:38">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15748,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:38">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15822,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:38">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15896,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:38">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15970,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:38">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16044,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:38">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16121,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:38">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16195,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:38">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16269,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:38">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16343,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:38">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16423,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:38">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16500,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:38">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16577,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:38">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16654,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:38">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16731,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:38">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16805,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:38">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16882,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:38">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16959,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:38">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17036,7 +17054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:38">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17107,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:38">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17181,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:38">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17252,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:38">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17323,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:38">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17397,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:38">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17471,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:38">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17545,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:38">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17622,7 +17640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:38">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17696,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:38">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17776,7 +17794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:38">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17853,7 +17871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:38">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17927,7 +17945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:38">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18004,7 +18022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:38">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18078,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:38">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18152,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:38">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18226,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:38">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18300,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:38">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18374,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:38">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18448,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:38">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18525,7 +18543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:38">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18599,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:38">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18682,7 +18700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:38">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18756,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:38">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18827,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:38">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18901,7 +18919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:38">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18975,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:38">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19058,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:38">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19141,7 +19159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:38">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19221,7 +19239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:38">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19301,7 +19319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:38">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19381,7 +19399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:38">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19464,7 +19482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:38">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19535,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:38">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19609,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19683,7 +19701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19757,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19831,7 +19849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19905,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -19982,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20056,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20133,7 +20151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20207,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20284,7 +20302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20358,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20432,7 +20450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20506,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20580,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20654,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20728,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20802,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20876,7 +20894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -20950,7 +20968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21024,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21098,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21172,7 +21190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21246,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21320,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -21394,7 +21412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -21468,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -21539,7 +21557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -21613,7 +21631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21684,7 +21702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -21758,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -21835,7 +21853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -21906,7 +21924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -21980,7 +21998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:34">
       <c r="A209">
         <v>208</v>
       </c>
@@ -22057,7 +22075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:34">
       <c r="A210">
         <v>209</v>
       </c>
@@ -22134,7 +22152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:34">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22208,7 +22226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:34">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22285,7 +22303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:34">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22359,7 +22377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:34">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22430,7 +22448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:34">
       <c r="A215">
         <v>214</v>
       </c>
@@ -22504,7 +22522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:34">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22578,7 +22596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:34">
       <c r="A217">
         <v>216</v>
       </c>
@@ -22649,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:34">
       <c r="A218">
         <v>217</v>
       </c>
@@ -22726,7 +22744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:34">
       <c r="A219">
         <v>218</v>
       </c>
@@ -22800,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:34">
       <c r="A220">
         <v>219</v>
       </c>
@@ -22871,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:34">
       <c r="A221">
         <v>220</v>
       </c>
@@ -22942,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:34">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23016,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:34">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23090,7 +23108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:34">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23164,7 +23182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23241,7 +23259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23315,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23383,7 +23401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23454,7 +23472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -23525,7 +23543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23596,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23667,7 +23685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23741,7 +23759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23812,7 +23830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23883,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23957,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24031,7 +24049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -24105,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -24182,7 +24200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -24256,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -24333,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:38">
       <c r="A241">
         <v>240</v>
       </c>
@@ -24407,7 +24425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:38">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24481,7 +24499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:38">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24558,7 +24576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:38">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24635,7 +24653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:38">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24709,7 +24727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:38">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24783,7 +24801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:38">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24857,7 +24875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:38">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24928,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:38">
       <c r="A249">
         <v>248</v>
       </c>
@@ -25002,7 +25020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:38">
       <c r="A250">
         <v>249</v>
       </c>
@@ -25076,7 +25094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:38">
       <c r="A251">
         <v>250</v>
       </c>
@@ -25150,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:38">
       <c r="A252">
         <v>251</v>
       </c>
@@ -25224,7 +25242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:38">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25295,7 +25313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:38">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25366,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:38">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25440,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:38">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25517,7 +25535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25591,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25662,7 +25680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25733,7 +25751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25807,7 +25825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25881,7 +25899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25958,7 +25976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -26032,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26106,7 +26124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26180,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26254,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26328,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26402,7 +26420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26476,7 +26494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -26553,7 +26571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -26627,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -26698,7 +26716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:36">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26769,7 +26787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:36">
       <c r="A274">
         <v>273</v>
       </c>
@@ -26843,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:36">
       <c r="A275">
         <v>274</v>
       </c>
@@ -26917,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:36">
       <c r="A276">
         <v>275</v>
       </c>
@@ -26988,7 +27006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:36">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27059,7 +27077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:36">
       <c r="A278">
         <v>277</v>
       </c>
@@ -27133,7 +27151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:36">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27207,7 +27225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:36">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27281,7 +27299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:36">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27355,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:36">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27426,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:36">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27497,7 +27515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:36">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27571,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:36">
       <c r="A285">
         <v>284</v>
       </c>
@@ -27584,6 +27602,9 @@
       <c r="E285" t="s">
         <v>600</v>
       </c>
+      <c r="F285" t="s">
+        <v>1882</v>
+      </c>
       <c r="G285" s="2">
         <v>1565</v>
       </c>
@@ -27642,7 +27663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:36">
       <c r="A286">
         <v>285</v>
       </c>
@@ -27719,7 +27740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:36">
       <c r="A287">
         <v>286</v>
       </c>
@@ -27799,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:36">
       <c r="A288">
         <v>287</v>
       </c>
@@ -27873,7 +27894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:38">
       <c r="A289">
         <v>288</v>
       </c>
@@ -27947,7 +27968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:38">
       <c r="A290">
         <v>289</v>
       </c>
@@ -28021,7 +28042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:38">
       <c r="A291">
         <v>290</v>
       </c>
@@ -28098,7 +28119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:38">
       <c r="A292">
         <v>291</v>
       </c>
@@ -28172,7 +28193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:38">
       <c r="A293">
         <v>292</v>
       </c>
@@ -28252,7 +28273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:38">
       <c r="A294">
         <v>293</v>
       </c>
@@ -28332,7 +28353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:38">
       <c r="A295">
         <v>294</v>
       </c>
@@ -28412,7 +28433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:38">
       <c r="A296">
         <v>295</v>
       </c>
@@ -28486,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:38">
       <c r="A297">
         <v>296</v>
       </c>
@@ -28563,7 +28584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:38">
       <c r="A298">
         <v>297</v>
       </c>
@@ -28637,7 +28658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:38">
       <c r="A299">
         <v>298</v>
       </c>
@@ -28711,7 +28732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:38">
       <c r="A300">
         <v>299</v>
       </c>
@@ -28788,7 +28809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:38">
       <c r="A301">
         <v>300</v>
       </c>
@@ -28865,7 +28886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:38">
       <c r="A302">
         <v>301</v>
       </c>
@@ -28942,7 +28963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:38">
       <c r="A303">
         <v>302</v>
       </c>
@@ -29019,7 +29040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:38">
       <c r="A304">
         <v>303</v>
       </c>
@@ -29096,7 +29117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:38">
       <c r="A305">
         <v>304</v>
       </c>
@@ -29176,7 +29197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:38">
       <c r="A306">
         <v>305</v>
       </c>
@@ -29256,7 +29277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:38">
       <c r="A307">
         <v>306</v>
       </c>
@@ -29336,7 +29357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:38">
       <c r="A308">
         <v>307</v>
       </c>
@@ -29416,7 +29437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:38">
       <c r="A309">
         <v>308</v>
       </c>
@@ -29496,7 +29517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:38">
       <c r="A310">
         <v>309</v>
       </c>
@@ -29573,7 +29594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:38">
       <c r="A311">
         <v>310</v>
       </c>
@@ -29647,7 +29668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:38">
       <c r="A312">
         <v>311</v>
       </c>
@@ -29721,7 +29742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:38">
       <c r="A313">
         <v>312</v>
       </c>
@@ -29795,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:38">
       <c r="A314">
         <v>313</v>
       </c>
@@ -29869,7 +29890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:38">
       <c r="A315">
         <v>314</v>
       </c>
@@ -29943,7 +29964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:38">
       <c r="A316">
         <v>315</v>
       </c>
@@ -30017,7 +30038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:38">
       <c r="A317">
         <v>316</v>
       </c>
@@ -30091,7 +30112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:38">
       <c r="A318">
         <v>317</v>
       </c>
@@ -30165,7 +30186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:38">
       <c r="A319">
         <v>318</v>
       </c>
@@ -30239,7 +30260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:38">
       <c r="A320">
         <v>319</v>
       </c>
@@ -30313,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:38">
       <c r="A321">
         <v>320</v>
       </c>
@@ -30390,7 +30411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:38">
       <c r="A322">
         <v>321</v>
       </c>
@@ -30464,7 +30485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:38">
       <c r="A323">
         <v>322</v>
       </c>
@@ -30538,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:38">
       <c r="A324">
         <v>323</v>
       </c>
@@ -30612,7 +30633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:38">
       <c r="A325">
         <v>324</v>
       </c>
@@ -30683,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:38">
       <c r="A326">
         <v>325</v>
       </c>
@@ -30757,7 +30778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:38">
       <c r="A327">
         <v>326</v>
       </c>
@@ -30834,7 +30855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:38">
       <c r="A328">
         <v>327</v>
       </c>
@@ -30911,7 +30932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:38">
       <c r="A329">
         <v>328</v>
       </c>
@@ -30985,7 +31006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:38">
       <c r="A330">
         <v>329</v>
       </c>
@@ -31059,7 +31080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:38">
       <c r="A331">
         <v>330</v>
       </c>
@@ -31133,7 +31154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:38">
       <c r="A332">
         <v>331</v>
       </c>
@@ -31210,7 +31231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:38">
       <c r="A333">
         <v>332</v>
       </c>
@@ -31284,7 +31305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:38">
       <c r="A334">
         <v>333</v>
       </c>
@@ -31358,7 +31379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:38">
       <c r="A335">
         <v>334</v>
       </c>
@@ -31435,7 +31456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:38">
       <c r="A336">
         <v>335</v>
       </c>
@@ -31509,7 +31530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:38">
       <c r="A337">
         <v>336</v>
       </c>
@@ -31583,7 +31604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:38">
       <c r="A338">
         <v>337</v>
       </c>
@@ -31654,7 +31675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:38">
       <c r="A339">
         <v>338</v>
       </c>
@@ -31725,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:38">
       <c r="A340">
         <v>339</v>
       </c>
@@ -31796,7 +31817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:38">
       <c r="A341">
         <v>340</v>
       </c>
@@ -31870,7 +31891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:38">
       <c r="A342">
         <v>341</v>
       </c>
@@ -31944,7 +31965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:38">
       <c r="A343">
         <v>342</v>
       </c>
@@ -32018,7 +32039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:38">
       <c r="A344">
         <v>343</v>
       </c>
@@ -32092,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:38">
       <c r="A345">
         <v>344</v>
       </c>
@@ -32172,7 +32193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:38">
       <c r="A346">
         <v>345</v>
       </c>
@@ -32249,7 +32270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:38">
       <c r="A347">
         <v>346</v>
       </c>
@@ -32329,7 +32350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:38">
       <c r="A348">
         <v>347</v>
       </c>
@@ -32409,7 +32430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:38">
       <c r="A349">
         <v>348</v>
       </c>
@@ -32489,7 +32510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:38">
       <c r="A350">
         <v>349</v>
       </c>
@@ -32569,7 +32590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:38">
       <c r="A351">
         <v>350</v>
       </c>
@@ -32649,7 +32670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:38">
       <c r="A352">
         <v>351</v>
       </c>
@@ -32729,7 +32750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:38">
       <c r="A353">
         <v>352</v>
       </c>
@@ -32806,7 +32827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:38">
       <c r="A354">
         <v>353</v>
       </c>
@@ -32883,7 +32904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:38">
       <c r="A355">
         <v>354</v>
       </c>
@@ -32960,7 +32981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:38">
       <c r="A356">
         <v>355</v>
       </c>
@@ -33037,7 +33058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:38">
       <c r="A357">
         <v>356</v>
       </c>
@@ -33114,7 +33135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:38">
       <c r="A358">
         <v>357</v>
       </c>
@@ -33191,7 +33212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:38">
       <c r="A359">
         <v>358</v>
       </c>
@@ -33268,7 +33289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:38">
       <c r="A360">
         <v>359</v>
       </c>
@@ -33345,7 +33366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:38">
       <c r="A361">
         <v>360</v>
       </c>
@@ -33422,7 +33443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:38">
       <c r="A362">
         <v>361</v>
       </c>
@@ -33499,7 +33520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:38">
       <c r="A363">
         <v>362</v>
       </c>
@@ -33576,7 +33597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:38">
       <c r="A364">
         <v>363</v>
       </c>
@@ -33650,7 +33671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:38">
       <c r="A365">
         <v>364</v>
       </c>
@@ -33724,7 +33745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:38">
       <c r="A366">
         <v>365</v>
       </c>
@@ -33798,7 +33819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:38">
       <c r="A367">
         <v>366</v>
       </c>
@@ -33869,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:38">
       <c r="A368">
         <v>367</v>
       </c>
@@ -33943,7 +33964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:34">
       <c r="A369">
         <v>368</v>
       </c>
@@ -34014,7 +34035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:34">
       <c r="A370">
         <v>369</v>
       </c>
@@ -34088,7 +34109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:34">
       <c r="A371">
         <v>370</v>
       </c>
@@ -34159,7 +34180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:34">
       <c r="A372">
         <v>371</v>
       </c>
@@ -34233,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:34">
       <c r="A373">
         <v>372</v>
       </c>
@@ -34307,7 +34328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:34">
       <c r="A374">
         <v>373</v>
       </c>
@@ -34378,7 +34399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:34">
       <c r="A375">
         <v>374</v>
       </c>
@@ -34452,7 +34473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:34">
       <c r="A376">
         <v>375</v>
       </c>
@@ -34529,7 +34550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:34">
       <c r="A377">
         <v>376</v>
       </c>
@@ -34609,7 +34630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:34">
       <c r="A378">
         <v>377</v>
       </c>
@@ -34686,7 +34707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:34">
       <c r="A379">
         <v>378</v>
       </c>
@@ -34763,7 +34784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:34">
       <c r="A380">
         <v>379</v>
       </c>
@@ -34840,7 +34861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:34">
       <c r="A381">
         <v>380</v>
       </c>
@@ -34920,7 +34941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:34">
       <c r="A382">
         <v>381</v>
       </c>
@@ -35000,7 +35021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:34">
       <c r="A383">
         <v>382</v>
       </c>
@@ -35074,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:34">
       <c r="A384">
         <v>383</v>
       </c>
@@ -35148,7 +35169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -35222,7 +35243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -35299,7 +35320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -35373,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -35447,7 +35468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -35521,7 +35542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -35592,7 +35613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -35666,7 +35687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -35743,7 +35764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -35820,7 +35841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -35894,7 +35915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -35968,7 +35989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -36042,7 +36063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -36116,7 +36137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -36193,7 +36214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -36270,7 +36291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -36344,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -36418,7 +36439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -36492,7 +36513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -36566,7 +36587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -36640,7 +36661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -36714,7 +36735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -36788,7 +36809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -36862,7 +36883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -36939,7 +36960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -37010,7 +37031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -37087,7 +37108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -37161,7 +37182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -37235,7 +37256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -37309,7 +37330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -37383,7 +37404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -37460,7 +37481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -37534,7 +37555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -37605,7 +37626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -37679,7 +37700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -37753,7 +37774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -37824,7 +37845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -37901,7 +37922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -37969,7 +37990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -38046,7 +38067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -38120,7 +38141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -38197,7 +38218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -38274,7 +38295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -38348,7 +38369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -38425,7 +38446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -38499,7 +38520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -38573,7 +38594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -38644,7 +38665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -38721,7 +38742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:32">
       <c r="A433">
         <v>432</v>
       </c>
@@ -38792,7 +38813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:32">
       <c r="A434">
         <v>433</v>
       </c>
@@ -38869,7 +38890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:32">
       <c r="A435">
         <v>434</v>
       </c>
@@ -38940,7 +38961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:32">
       <c r="A436">
         <v>435</v>
       </c>
@@ -39011,7 +39032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:32">
       <c r="A437">
         <v>436</v>
       </c>
@@ -39088,7 +39109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:32">
       <c r="A438">
         <v>437</v>
       </c>
@@ -39165,7 +39186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:32">
       <c r="A439">
         <v>438</v>
       </c>
@@ -39239,7 +39260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:32">
       <c r="A440">
         <v>439</v>
       </c>
@@ -39313,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:32">
       <c r="A441">
         <v>440</v>
       </c>
@@ -39387,7 +39408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:32">
       <c r="A442">
         <v>441</v>
       </c>
@@ -39461,7 +39482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:32">
       <c r="A443">
         <v>442</v>
       </c>
@@ -39535,7 +39556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:32">
       <c r="A444">
         <v>443</v>
       </c>
@@ -39609,7 +39630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:32">
       <c r="A445">
         <v>444</v>
       </c>
@@ -39680,7 +39701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:32">
       <c r="A446">
         <v>445</v>
       </c>
@@ -39754,7 +39775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:32">
       <c r="A447">
         <v>446</v>
       </c>
@@ -39828,7 +39849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:32">
       <c r="A448">
         <v>447</v>
       </c>
@@ -39902,7 +39923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:36">
       <c r="A449">
         <v>448</v>
       </c>
@@ -39976,7 +39997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:36">
       <c r="A450">
         <v>449</v>
       </c>
@@ -40050,7 +40071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:36">
       <c r="A451">
         <v>450</v>
       </c>
@@ -40121,7 +40142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:36">
       <c r="A452">
         <v>451</v>
       </c>
@@ -40195,7 +40216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:36">
       <c r="A453">
         <v>452</v>
       </c>
@@ -40266,7 +40287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:36">
       <c r="A454">
         <v>453</v>
       </c>
@@ -40340,7 +40361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:36">
       <c r="A455">
         <v>454</v>
       </c>
@@ -40417,7 +40438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:36">
       <c r="A456">
         <v>455</v>
       </c>
@@ -40491,7 +40512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:36">
       <c r="A457">
         <v>456</v>
       </c>
@@ -40565,7 +40586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:36">
       <c r="A458">
         <v>457</v>
       </c>
@@ -40639,7 +40660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:36">
       <c r="A459">
         <v>458</v>
       </c>
@@ -40713,7 +40734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:36">
       <c r="A460">
         <v>459</v>
       </c>
@@ -40787,7 +40808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:36">
       <c r="A461">
         <v>460</v>
       </c>
@@ -40861,7 +40882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:36">
       <c r="A462">
         <v>461</v>
       </c>
@@ -40941,7 +40962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:36">
       <c r="A463">
         <v>462</v>
       </c>
@@ -41015,7 +41036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:36">
       <c r="A464">
         <v>463</v>
       </c>
@@ -41089,7 +41110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:37">
       <c r="A465">
         <v>464</v>
       </c>
@@ -41163,7 +41184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:37">
       <c r="A466">
         <v>465</v>
       </c>
@@ -41240,7 +41261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:37">
       <c r="A467">
         <v>466</v>
       </c>
@@ -41314,7 +41335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:37">
       <c r="A468">
         <v>467</v>
       </c>
@@ -41391,7 +41412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:37">
       <c r="A469">
         <v>468</v>
       </c>
@@ -41468,7 +41489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:37">
       <c r="A470">
         <v>469</v>
       </c>
@@ -41542,7 +41563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:37">
       <c r="A471">
         <v>470</v>
       </c>
@@ -41616,7 +41637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:37">
       <c r="A472">
         <v>471</v>
       </c>
@@ -41693,7 +41714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:37">
       <c r="A473">
         <v>472</v>
       </c>
@@ -41770,7 +41791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:37">
       <c r="A474">
         <v>473</v>
       </c>
@@ -41847,7 +41868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:37">
       <c r="A475">
         <v>474</v>
       </c>
@@ -41924,7 +41945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:37">
       <c r="A476">
         <v>475</v>
       </c>
@@ -42007,7 +42028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:37">
       <c r="A477">
         <v>476</v>
       </c>
@@ -42090,7 +42111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:37">
       <c r="A478">
         <v>477</v>
       </c>
@@ -42173,7 +42194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:37">
       <c r="A479">
         <v>478</v>
       </c>
@@ -42250,7 +42271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:37">
       <c r="A480">
         <v>479</v>
       </c>
@@ -42327,7 +42348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:38">
       <c r="A481">
         <v>480</v>
       </c>
@@ -42401,7 +42422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:38">
       <c r="A482">
         <v>481</v>
       </c>
@@ -42478,7 +42499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:38">
       <c r="A483">
         <v>482</v>
       </c>
@@ -42552,7 +42573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:38">
       <c r="A484">
         <v>483</v>
       </c>
@@ -42626,7 +42647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:38">
       <c r="A485">
         <v>484</v>
       </c>
@@ -42703,7 +42724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:38">
       <c r="A486">
         <v>485</v>
       </c>
@@ -42780,7 +42801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:38">
       <c r="A487">
         <v>486</v>
       </c>
@@ -42857,7 +42878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:38">
       <c r="A488">
         <v>487</v>
       </c>
@@ -42934,7 +42955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:38">
       <c r="A489">
         <v>488</v>
       </c>
@@ -43008,7 +43029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:38">
       <c r="A490">
         <v>489</v>
       </c>
@@ -43082,7 +43103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:38">
       <c r="A491">
         <v>490</v>
       </c>
@@ -43156,7 +43177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:38">
       <c r="A492">
         <v>491</v>
       </c>
@@ -43233,7 +43254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:38">
       <c r="A493">
         <v>492</v>
       </c>
@@ -43307,7 +43328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:38">
       <c r="A494">
         <v>493</v>
       </c>
@@ -43381,7 +43402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:38">
       <c r="A495">
         <v>494</v>
       </c>
@@ -43458,7 +43479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:38">
       <c r="A496">
         <v>495</v>
       </c>
@@ -43538,7 +43559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:38">
       <c r="A497">
         <v>496</v>
       </c>
@@ -43618,7 +43639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:38">
       <c r="A498">
         <v>497</v>
       </c>
@@ -43692,7 +43713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:38">
       <c r="A499">
         <v>498</v>
       </c>
@@ -43766,7 +43787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:38">
       <c r="A500">
         <v>499</v>
       </c>
@@ -43843,7 +43864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:38">
       <c r="A501">
         <v>500</v>
       </c>
@@ -43920,7 +43941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:38">
       <c r="A502">
         <v>501</v>
       </c>
@@ -43994,7 +44015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:38">
       <c r="A503">
         <v>502</v>
       </c>
@@ -44068,7 +44089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:38">
       <c r="A504">
         <v>503</v>
       </c>
@@ -44142,7 +44163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:38">
       <c r="A505">
         <v>504</v>
       </c>
@@ -44213,7 +44234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:38">
       <c r="A506">
         <v>505</v>
       </c>
@@ -44287,7 +44308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:38">
       <c r="A507">
         <v>506</v>
       </c>
@@ -44361,7 +44382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:38">
       <c r="A508">
         <v>507</v>
       </c>
@@ -44435,7 +44456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:38">
       <c r="A509">
         <v>508</v>
       </c>
@@ -44509,7 +44530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:38">
       <c r="A510">
         <v>509</v>
       </c>
@@ -44583,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:38">
       <c r="A511">
         <v>510</v>
       </c>
@@ -44657,7 +44678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:38">
       <c r="A512">
         <v>511</v>
       </c>
@@ -44731,7 +44752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:32">
       <c r="A513">
         <v>512</v>
       </c>
@@ -44805,7 +44826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:32">
       <c r="A514">
         <v>513</v>
       </c>
@@ -44879,7 +44900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:32">
       <c r="A515">
         <v>514</v>
       </c>
@@ -44953,7 +44974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:32">
       <c r="A516">
         <v>515</v>
       </c>
@@ -45027,7 +45048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:32">
       <c r="A517">
         <v>516</v>
       </c>
@@ -45104,7 +45125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:32">
       <c r="A518">
         <v>517</v>
       </c>
@@ -45178,7 +45199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:32">
       <c r="A519">
         <v>518</v>
       </c>
@@ -45252,7 +45273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:32">
       <c r="A520">
         <v>519</v>
       </c>
@@ -45326,7 +45347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:32">
       <c r="A521">
         <v>520</v>
       </c>
@@ -45400,7 +45421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:32">
       <c r="A522">
         <v>521</v>
       </c>
@@ -45474,7 +45495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:32">
       <c r="A523">
         <v>522</v>
       </c>
@@ -45548,7 +45569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:32">
       <c r="A524">
         <v>523</v>
       </c>
@@ -45622,7 +45643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:32">
       <c r="A525">
         <v>524</v>
       </c>
@@ -45696,7 +45717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:32">
       <c r="A526">
         <v>525</v>
       </c>
@@ -45770,7 +45791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:32">
       <c r="A527">
         <v>526</v>
       </c>
@@ -45844,7 +45865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:32">
       <c r="A528">
         <v>527</v>
       </c>
@@ -45918,7 +45939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:38">
       <c r="A529">
         <v>528</v>
       </c>
@@ -45995,7 +46016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:38">
       <c r="A530">
         <v>529</v>
       </c>
@@ -46069,7 +46090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:38">
       <c r="A531">
         <v>530</v>
       </c>
@@ -46143,7 +46164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:38">
       <c r="A532">
         <v>531</v>
       </c>
@@ -46217,7 +46238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:38">
       <c r="A533">
         <v>532</v>
       </c>
@@ -46291,7 +46312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:38">
       <c r="A534">
         <v>533</v>
       </c>
@@ -46365,7 +46386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:38">
       <c r="A535">
         <v>534</v>
       </c>
@@ -46439,7 +46460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:38">
       <c r="A536">
         <v>535</v>
       </c>
@@ -46513,7 +46534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:38">
       <c r="A537">
         <v>536</v>
       </c>
@@ -46587,7 +46608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:38">
       <c r="A538">
         <v>537</v>
       </c>
@@ -46661,7 +46682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:38">
       <c r="A539">
         <v>538</v>
       </c>
@@ -46735,7 +46756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:38">
       <c r="A540">
         <v>539</v>
       </c>
@@ -46809,7 +46830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:38">
       <c r="A541">
         <v>540</v>
       </c>
@@ -46883,7 +46904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:38">
       <c r="A542">
         <v>541</v>
       </c>
@@ -46957,7 +46978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:38">
       <c r="A543">
         <v>542</v>
       </c>
@@ -47031,7 +47052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:38">
       <c r="A544">
         <v>543</v>
       </c>
@@ -47114,7 +47135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:38">
       <c r="A545">
         <v>544</v>
       </c>
@@ -47188,7 +47209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:38">
       <c r="A546">
         <v>545</v>
       </c>
@@ -47262,7 +47283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:38">
       <c r="A547">
         <v>546</v>
       </c>
@@ -47339,7 +47360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:38">
       <c r="A548">
         <v>547</v>
       </c>
@@ -47419,7 +47440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:38">
       <c r="A549">
         <v>548</v>
       </c>
@@ -47499,7 +47520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:38">
       <c r="A550">
         <v>549</v>
       </c>
@@ -47579,7 +47600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:38">
       <c r="A551">
         <v>550</v>
       </c>
@@ -47659,7 +47680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:38">
       <c r="A552">
         <v>551</v>
       </c>
@@ -47742,7 +47763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:38">
       <c r="A553">
         <v>552</v>
       </c>
@@ -47822,7 +47843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:38">
       <c r="A554">
         <v>553</v>
       </c>
@@ -47902,7 +47923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:38">
       <c r="A555">
         <v>554</v>
       </c>
@@ -47982,7 +48003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:38">
       <c r="A556">
         <v>555</v>
       </c>
@@ -48062,7 +48083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:38">
       <c r="A557">
         <v>556</v>
       </c>
@@ -48142,7 +48163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:38">
       <c r="A558">
         <v>557</v>
       </c>
@@ -48216,7 +48237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:38">
       <c r="A559">
         <v>558</v>
       </c>
@@ -48293,7 +48314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:38">
       <c r="A560">
         <v>559</v>
       </c>
@@ -48367,7 +48388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:38">
       <c r="A561">
         <v>560</v>
       </c>
@@ -48441,7 +48462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:38">
       <c r="A562">
         <v>561</v>
       </c>
@@ -48515,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:38">
       <c r="A563">
         <v>562</v>
       </c>
@@ -48589,7 +48610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:38">
       <c r="A564">
         <v>563</v>
       </c>
@@ -48666,7 +48687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:38">
       <c r="A565">
         <v>564</v>
       </c>
@@ -48743,7 +48764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:38">
       <c r="A566">
         <v>565</v>
       </c>
@@ -48820,7 +48841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:38">
       <c r="A567">
         <v>566</v>
       </c>
@@ -48894,7 +48915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:38">
       <c r="A568">
         <v>567</v>
       </c>
@@ -48968,7 +48989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:38">
       <c r="A569">
         <v>568</v>
       </c>
@@ -49042,7 +49063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:38">
       <c r="A570">
         <v>569</v>
       </c>
@@ -49116,7 +49137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:38">
       <c r="A571">
         <v>570</v>
       </c>
@@ -49193,7 +49214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:38">
       <c r="A572">
         <v>571</v>
       </c>
@@ -49267,7 +49288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:38">
       <c r="A573">
         <v>572</v>
       </c>
@@ -49341,7 +49362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:38">
       <c r="A574">
         <v>573</v>
       </c>
@@ -49415,7 +49436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:38">
       <c r="A575">
         <v>574</v>
       </c>
@@ -49492,7 +49513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:38">
       <c r="A576">
         <v>575</v>
       </c>
@@ -49566,7 +49587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:36">
       <c r="A577">
         <v>576</v>
       </c>
@@ -49640,7 +49661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:36">
       <c r="A578">
         <v>577</v>
       </c>
@@ -49714,7 +49735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:36">
       <c r="A579">
         <v>578</v>
       </c>
@@ -49788,7 +49809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:36">
       <c r="A580">
         <v>579</v>
       </c>
@@ -49862,7 +49883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:36">
       <c r="A581">
         <v>580</v>
       </c>
@@ -49936,7 +49957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:36">
       <c r="A582">
         <v>581</v>
       </c>
@@ -50010,7 +50031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:36">
       <c r="A583">
         <v>582</v>
       </c>
@@ -50084,7 +50105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:36">
       <c r="A584">
         <v>583</v>
       </c>
@@ -50158,7 +50179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:36">
       <c r="A585">
         <v>584</v>
       </c>
@@ -50235,7 +50256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:36">
       <c r="A586">
         <v>585</v>
       </c>
@@ -50306,7 +50327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:36">
       <c r="A587">
         <v>586</v>
       </c>
@@ -50383,7 +50404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:36">
       <c r="A588">
         <v>587</v>
       </c>
@@ -50460,7 +50481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:36">
       <c r="A589">
         <v>588</v>
       </c>
@@ -50534,7 +50555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:36">
       <c r="A590">
         <v>589</v>
       </c>
@@ -50611,7 +50632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:36">
       <c r="A591">
         <v>590</v>
       </c>
@@ -50685,7 +50706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:36">
       <c r="A592">
         <v>591</v>
       </c>
@@ -50759,7 +50780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:35">
       <c r="A593">
         <v>592</v>
       </c>
@@ -50833,7 +50854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:35">
       <c r="A594">
         <v>593</v>
       </c>
@@ -50907,7 +50928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:35">
       <c r="A595">
         <v>594</v>
       </c>
@@ -50981,7 +51002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:35">
       <c r="A596">
         <v>595</v>
       </c>
@@ -51058,7 +51079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:35">
       <c r="A597">
         <v>596</v>
       </c>
@@ -51135,7 +51156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:35">
       <c r="A598">
         <v>597</v>
       </c>
@@ -51209,7 +51230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:35">
       <c r="A599">
         <v>598</v>
       </c>
@@ -51283,7 +51304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:35">
       <c r="A600">
         <v>599</v>
       </c>
@@ -51357,7 +51378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:35">
       <c r="A601">
         <v>600</v>
       </c>
@@ -51428,7 +51449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:35">
       <c r="A602">
         <v>601</v>
       </c>
@@ -51502,7 +51523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:35">
       <c r="A603">
         <v>602</v>
       </c>
@@ -51576,7 +51597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:35">
       <c r="A604">
         <v>603</v>
       </c>
@@ -51650,7 +51671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:35">
       <c r="A605">
         <v>604</v>
       </c>
@@ -51724,7 +51745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:35">
       <c r="A606">
         <v>605</v>
       </c>
@@ -51795,7 +51816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:35">
       <c r="A607">
         <v>606</v>
       </c>
@@ -51869,7 +51890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:35">
       <c r="A608">
         <v>607</v>
       </c>
@@ -51943,7 +51964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:35">
       <c r="A609">
         <v>608</v>
       </c>
@@ -52020,7 +52041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:35">
       <c r="A610">
         <v>609</v>
       </c>
@@ -52094,7 +52115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:35">
       <c r="A611">
         <v>610</v>
       </c>
@@ -52168,7 +52189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:35">
       <c r="A612">
         <v>611</v>
       </c>
@@ -52242,7 +52263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:35">
       <c r="A613">
         <v>612</v>
       </c>
@@ -52316,7 +52337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:35">
       <c r="A614">
         <v>613</v>
       </c>
@@ -52396,7 +52417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:35">
       <c r="A615">
         <v>614</v>
       </c>
@@ -52473,7 +52494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:35">
       <c r="A616">
         <v>615</v>
       </c>
@@ -52547,7 +52568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:35">
       <c r="A617">
         <v>616</v>
       </c>
@@ -52621,7 +52642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:35">
       <c r="A618">
         <v>617</v>
       </c>
@@ -52698,7 +52719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:35">
       <c r="A619">
         <v>618</v>
       </c>
@@ -52775,7 +52796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:35">
       <c r="A620">
         <v>619</v>
       </c>
@@ -52852,7 +52873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:35">
       <c r="A621">
         <v>620</v>
       </c>
@@ -52929,7 +52950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:35">
       <c r="A622">
         <v>621</v>
       </c>
@@ -53006,7 +53027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:35">
       <c r="A623">
         <v>622</v>
       </c>
@@ -53080,7 +53101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:35">
       <c r="A624">
         <v>623</v>
       </c>
@@ -53154,7 +53175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:32">
       <c r="A625">
         <v>624</v>
       </c>
@@ -53228,7 +53249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:32">
       <c r="A626">
         <v>625</v>
       </c>
@@ -53302,7 +53323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:32">
       <c r="A627">
         <v>626</v>
       </c>
@@ -53379,7 +53400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:32">
       <c r="A628">
         <v>627</v>
       </c>
@@ -53453,7 +53474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:32">
       <c r="A629">
         <v>628</v>
       </c>
@@ -53527,7 +53548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:32">
       <c r="A630">
         <v>629</v>
       </c>
@@ -53601,7 +53622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:32">
       <c r="A631">
         <v>630</v>
       </c>
@@ -53675,7 +53696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:32">
       <c r="A632">
         <v>631</v>
       </c>
@@ -53749,7 +53770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:32">
       <c r="A633">
         <v>632</v>
       </c>
@@ -53823,7 +53844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:32">
       <c r="A634">
         <v>633</v>
       </c>
@@ -53897,7 +53918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:32">
       <c r="A635">
         <v>634</v>
       </c>
@@ -53971,7 +53992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:32">
       <c r="A636">
         <v>635</v>
       </c>
@@ -54045,7 +54066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:32">
       <c r="A637">
         <v>636</v>
       </c>
@@ -54119,7 +54140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:32">
       <c r="A638">
         <v>637</v>
       </c>
@@ -54193,7 +54214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:32">
       <c r="A639">
         <v>638</v>
       </c>
@@ -54267,7 +54288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:32">
       <c r="A640">
         <v>639</v>
       </c>
@@ -54341,7 +54362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:35">
       <c r="A641">
         <v>640</v>
       </c>
@@ -54418,7 +54439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:35">
       <c r="A642">
         <v>641</v>
       </c>
@@ -54492,7 +54513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:35">
       <c r="A643">
         <v>642</v>
       </c>
@@ -54569,7 +54590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:35">
       <c r="A644">
         <v>643</v>
       </c>
@@ -54643,7 +54664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:35">
       <c r="A645">
         <v>644</v>
       </c>
@@ -54717,7 +54738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:35">
       <c r="A646">
         <v>645</v>
       </c>
@@ -54791,7 +54812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:35">
       <c r="A647">
         <v>646</v>
       </c>
@@ -54865,7 +54886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:35">
       <c r="A648">
         <v>647</v>
       </c>
@@ -54939,7 +54960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:35">
       <c r="A649">
         <v>648</v>
       </c>
@@ -55013,7 +55034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:35">
       <c r="A650">
         <v>649</v>
       </c>
@@ -55090,7 +55111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:35">
       <c r="A651">
         <v>650</v>
       </c>
@@ -55164,7 +55185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:35">
       <c r="A652">
         <v>651</v>
       </c>
@@ -55241,7 +55262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:35">
       <c r="A653">
         <v>652</v>
       </c>
@@ -55321,7 +55342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:35">
       <c r="A654">
         <v>653</v>
       </c>
@@ -55401,7 +55422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:35">
       <c r="A655">
         <v>654</v>
       </c>
@@ -55475,7 +55496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:35">
       <c r="A656">
         <v>655</v>
       </c>
@@ -55555,7 +55576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:32">
       <c r="A657">
         <v>656</v>
       </c>
@@ -55632,7 +55653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:32">
       <c r="A658">
         <v>657</v>
       </c>
@@ -55706,7 +55727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:32">
       <c r="A659">
         <v>658</v>
       </c>
@@ -55780,7 +55801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:32">
       <c r="A660">
         <v>659</v>
       </c>
@@ -55854,7 +55875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:32">
       <c r="A661">
         <v>660</v>
       </c>
@@ -55928,7 +55949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:32">
       <c r="A662">
         <v>661</v>
       </c>
@@ -56002,7 +56023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:32">
       <c r="A663">
         <v>662</v>
       </c>
@@ -56076,7 +56097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:32">
       <c r="A664">
         <v>663</v>
       </c>
@@ -56150,7 +56171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:32">
       <c r="A665">
         <v>664</v>
       </c>
@@ -56224,7 +56245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:32">
       <c r="A666">
         <v>665</v>
       </c>
@@ -56298,7 +56319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:32">
       <c r="A667">
         <v>666</v>
       </c>
@@ -56372,7 +56393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:32">
       <c r="A668">
         <v>667</v>
       </c>
@@ -56446,7 +56467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:32">
       <c r="A669">
         <v>668</v>
       </c>
@@ -56523,7 +56544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:32">
       <c r="A670">
         <v>669</v>
       </c>
@@ -56597,7 +56618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:32">
       <c r="A671">
         <v>670</v>
       </c>
@@ -56671,7 +56692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:32">
       <c r="A672">
         <v>671</v>
       </c>
@@ -56745,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:34">
       <c r="A673">
         <v>672</v>
       </c>
@@ -56819,7 +56840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:34">
       <c r="A674">
         <v>673</v>
       </c>
@@ -56893,7 +56914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:34">
       <c r="A675">
         <v>674</v>
       </c>
@@ -56967,7 +56988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:34">
       <c r="A676">
         <v>675</v>
       </c>
@@ -57041,7 +57062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:34">
       <c r="A677">
         <v>676</v>
       </c>
@@ -57115,7 +57136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:34">
       <c r="A678">
         <v>677</v>
       </c>
@@ -57189,7 +57210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:34">
       <c r="A679">
         <v>678</v>
       </c>
@@ -57263,7 +57284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:34">
       <c r="A680">
         <v>679</v>
       </c>
@@ -57337,7 +57358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:34">
       <c r="A681">
         <v>680</v>
       </c>
@@ -57411,7 +57432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:34">
       <c r="A682">
         <v>681</v>
       </c>
@@ -57485,7 +57506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:34">
       <c r="A683">
         <v>682</v>
       </c>
@@ -57559,7 +57580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:34">
       <c r="A684">
         <v>683</v>
       </c>
@@ -57633,7 +57654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:34">
       <c r="A685">
         <v>684</v>
       </c>
@@ -57710,7 +57731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:34">
       <c r="A686">
         <v>685</v>
       </c>
@@ -57787,7 +57808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:34">
       <c r="A687">
         <v>686</v>
       </c>
@@ -57864,7 +57885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:34">
       <c r="A688">
         <v>687</v>
       </c>
@@ -57941,7 +57962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:34">
       <c r="A689">
         <v>688</v>
       </c>
@@ -58018,7 +58039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:34">
       <c r="A690">
         <v>689</v>
       </c>
@@ -58095,7 +58116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:34">
       <c r="A691">
         <v>690</v>
       </c>
@@ -58169,7 +58190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:34">
       <c r="A692">
         <v>691</v>
       </c>
@@ -58243,7 +58264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:34">
       <c r="A693">
         <v>692</v>
       </c>
@@ -58317,7 +58338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:34">
       <c r="A694">
         <v>693</v>
       </c>
@@ -58391,7 +58412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:34">
       <c r="A695">
         <v>694</v>
       </c>
@@ -58465,7 +58486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:34">
       <c r="A696">
         <v>695</v>
       </c>
@@ -58539,7 +58560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:34">
       <c r="A697">
         <v>696</v>
       </c>
@@ -58616,7 +58637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:34">
       <c r="A698">
         <v>697</v>
       </c>
@@ -58690,7 +58711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:34">
       <c r="A699">
         <v>698</v>
       </c>
@@ -58764,7 +58785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:34">
       <c r="A700">
         <v>699</v>
       </c>
@@ -58841,7 +58862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:34">
       <c r="A701">
         <v>700</v>
       </c>
@@ -58918,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:34">
       <c r="A702">
         <v>701</v>
       </c>
@@ -58941,7 +58962,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="703" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:34">
       <c r="A703">
         <v>702</v>
       </c>
@@ -58964,7 +58985,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="704" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:34">
       <c r="A704">
         <v>703</v>
       </c>
@@ -58987,7 +59008,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:12">
       <c r="A705">
         <v>704</v>
       </c>
@@ -59010,7 +59031,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:12">
       <c r="A706">
         <v>705</v>
       </c>
@@ -59033,7 +59054,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:12">
       <c r="A707">
         <v>706</v>
       </c>
@@ -59056,7 +59077,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:12">
       <c r="A708">
         <v>707</v>
       </c>
@@ -59079,7 +59100,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:12">
       <c r="A709">
         <v>708</v>
       </c>
@@ -59102,7 +59123,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:12">
       <c r="A710">
         <v>709</v>
       </c>
@@ -59125,7 +59146,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:12">
       <c r="A711">
         <v>710</v>
       </c>
@@ -59148,7 +59169,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:12">
       <c r="A712">
         <v>711</v>
       </c>
@@ -59171,7 +59192,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:12">
       <c r="A713">
         <v>712</v>
       </c>
@@ -59194,7 +59215,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:12">
       <c r="A714">
         <v>713</v>
       </c>
@@ -59217,7 +59238,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:12">
       <c r="A715">
         <v>714</v>
       </c>
@@ -59240,7 +59261,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:12">
       <c r="A716">
         <v>715</v>
       </c>
@@ -59263,7 +59284,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:12">
       <c r="A717">
         <v>716</v>
       </c>
@@ -59286,7 +59307,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:12">
       <c r="A718">
         <v>717</v>
       </c>
@@ -59300,7 +59321,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:12">
       <c r="A719">
         <v>718</v>
       </c>
@@ -59314,7 +59335,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:12">
       <c r="A720">
         <v>719</v>
       </c>
@@ -59331,7 +59352,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:6">
       <c r="A721">
         <v>720</v>
       </c>
@@ -59348,7 +59369,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:6">
       <c r="A722">
         <v>721</v>
       </c>
@@ -59362,7 +59383,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:6">
       <c r="A723">
         <v>722</v>
       </c>
@@ -59376,7 +59397,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:6">
       <c r="A724">
         <v>723</v>
       </c>
@@ -59390,7 +59411,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:6">
       <c r="A725">
         <v>724</v>
       </c>
@@ -59404,7 +59425,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:6">
       <c r="A726">
         <v>725</v>
       </c>
@@ -59418,7 +59439,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:6">
       <c r="A727">
         <v>726</v>
       </c>
@@ -59432,7 +59453,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:6">
       <c r="A728">
         <v>727</v>
       </c>
@@ -59446,7 +59467,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:6">
       <c r="A729">
         <v>728</v>
       </c>
@@ -59460,7 +59481,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:6">
       <c r="A730">
         <v>729</v>
       </c>
@@ -59474,7 +59495,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:6">
       <c r="A731">
         <v>730</v>
       </c>
@@ -59488,7 +59509,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:6">
       <c r="A732">
         <v>731</v>
       </c>
@@ -59502,7 +59523,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:6">
       <c r="A733">
         <v>732</v>
       </c>
@@ -59516,7 +59537,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:6">
       <c r="A734">
         <v>733</v>
       </c>
@@ -59530,7 +59551,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:6">
       <c r="A735">
         <v>734</v>
       </c>
@@ -59544,7 +59565,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:6">
       <c r="A736">
         <v>735</v>
       </c>
@@ -59558,7 +59579,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:5">
       <c r="A737">
         <v>736</v>
       </c>
@@ -59572,7 +59593,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:5">
       <c r="A738">
         <v>737</v>
       </c>
@@ -59586,7 +59607,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:5">
       <c r="A739">
         <v>738</v>
       </c>
@@ -59600,7 +59621,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:5">
       <c r="A740">
         <v>739</v>
       </c>
@@ -59614,7 +59635,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:5">
       <c r="A741">
         <v>740</v>
       </c>
@@ -59628,7 +59649,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:5">
       <c r="A742">
         <v>741</v>
       </c>
@@ -59642,7 +59663,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:5">
       <c r="A743">
         <v>742</v>
       </c>
@@ -59656,7 +59677,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:5">
       <c r="A744">
         <v>743</v>
       </c>
@@ -59670,7 +59691,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:5">
       <c r="A745">
         <v>744</v>
       </c>
@@ -59684,7 +59705,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:5">
       <c r="B746">
         <v>742</v>
       </c>
@@ -59692,7 +59713,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:5">
       <c r="B747">
         <v>743</v>
       </c>
@@ -59700,7 +59721,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:5">
       <c r="B748">
         <v>744</v>
       </c>
@@ -59708,7 +59729,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:5">
       <c r="B749">
         <v>745</v>
       </c>
@@ -59716,7 +59737,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:5">
       <c r="B750">
         <v>746</v>
       </c>
@@ -59724,7 +59745,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:5">
       <c r="B751">
         <v>747</v>
       </c>
@@ -59732,7 +59753,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:5">
       <c r="B752">
         <v>748</v>
       </c>
@@ -59740,7 +59761,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="753" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="753" spans="2:5">
       <c r="B753">
         <v>749</v>
       </c>
@@ -59751,27 +59772,27 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="754" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="754" spans="2:5">
       <c r="B754">
         <v>750</v>
       </c>
     </row>
-    <row r="755" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="755" spans="2:5">
       <c r="B755">
         <v>751</v>
       </c>
     </row>
-    <row r="756" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="756" spans="2:5">
       <c r="B756">
         <v>752</v>
       </c>
     </row>
-    <row r="757" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="757" spans="2:5">
       <c r="B757">
         <v>753</v>
       </c>
     </row>
-    <row r="758" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="758" spans="2:5">
       <c r="B758">
         <v>754</v>
       </c>
@@ -59779,7 +59800,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="759" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="759" spans="2:5">
       <c r="B759">
         <v>755</v>
       </c>
@@ -59787,7 +59808,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="760" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="760" spans="2:5">
       <c r="B760">
         <v>756</v>
       </c>
@@ -59795,7 +59816,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="761" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="761" spans="2:5">
       <c r="B761">
         <v>757</v>
       </c>
@@ -59803,7 +59824,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="762" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="762" spans="2:5">
       <c r="B762">
         <v>758</v>
       </c>
@@ -59811,37 +59832,37 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="763" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="763" spans="2:5">
       <c r="B763">
         <v>759</v>
       </c>
     </row>
-    <row r="764" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="764" spans="2:5">
       <c r="B764">
         <v>760</v>
       </c>
     </row>
-    <row r="765" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="765" spans="2:5">
       <c r="B765">
         <v>761</v>
       </c>
     </row>
-    <row r="766" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="766" spans="2:5">
       <c r="B766">
         <v>762</v>
       </c>
     </row>
-    <row r="767" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="767" spans="2:5">
       <c r="B767">
         <v>763</v>
       </c>
     </row>
-    <row r="768" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="768" spans="2:5">
       <c r="B768">
         <v>764</v>
       </c>
     </row>
-    <row r="769" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="769" spans="2:10">
       <c r="B769">
         <v>765</v>
       </c>
@@ -59849,28 +59870,28 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="770" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="770" spans="2:10">
       <c r="B770">
         <v>766</v>
       </c>
     </row>
-    <row r="771" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="771" spans="2:10">
       <c r="B771">
         <v>767</v>
       </c>
     </row>
-    <row r="772" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="772" spans="2:10">
       <c r="B772">
         <v>768</v>
       </c>
     </row>
-    <row r="773" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="773" spans="2:10">
       <c r="B773">
         <v>769</v>
       </c>
     </row>
-    <row r="774" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="775" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="774" spans="2:10" ht="14.25" thickBot="1"/>
+    <row r="775" spans="2:10">
       <c r="D775" s="20" t="s">
         <v>1849</v>
       </c>
@@ -59881,7 +59902,7 @@
       <c r="I775" s="22"/>
       <c r="J775" s="23"/>
     </row>
-    <row r="776" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="776" spans="2:10">
       <c r="D776" s="24" t="s">
         <v>1850</v>
       </c>
@@ -59892,7 +59913,7 @@
       <c r="I776" s="19"/>
       <c r="J776" s="25"/>
     </row>
-    <row r="777" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="777" spans="2:10">
       <c r="D777" s="24" t="s">
         <v>1851</v>
       </c>
@@ -59903,7 +59924,7 @@
       <c r="I777" s="19"/>
       <c r="J777" s="25"/>
     </row>
-    <row r="778" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="778" spans="2:10">
       <c r="D778" s="24" t="s">
         <v>1852</v>
       </c>
@@ -59914,7 +59935,7 @@
       <c r="I778" s="19"/>
       <c r="J778" s="25"/>
     </row>
-    <row r="779" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="779" spans="2:10">
       <c r="D779" s="24" t="s">
         <v>1853</v>
       </c>
@@ -59925,7 +59946,7 @@
       <c r="I779" s="19"/>
       <c r="J779" s="25"/>
     </row>
-    <row r="780" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="780" spans="2:10">
       <c r="D780" s="24" t="s">
         <v>1854</v>
       </c>
@@ -59936,7 +59957,7 @@
       <c r="I780" s="19"/>
       <c r="J780" s="25"/>
     </row>
-    <row r="781" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="781" spans="2:10">
       <c r="D781" s="24" t="s">
         <v>1855</v>
       </c>
@@ -59947,7 +59968,7 @@
       <c r="I781" s="19"/>
       <c r="J781" s="25"/>
     </row>
-    <row r="782" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="782" spans="2:10">
       <c r="D782" s="24" t="s">
         <v>1856</v>
       </c>
@@ -59958,7 +59979,7 @@
       <c r="I782" s="19"/>
       <c r="J782" s="25"/>
     </row>
-    <row r="783" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="783" spans="2:10">
       <c r="D783" s="24" t="s">
         <v>1857</v>
       </c>
@@ -59969,7 +59990,7 @@
       <c r="I783" s="19"/>
       <c r="J783" s="25"/>
     </row>
-    <row r="784" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="784" spans="2:10">
       <c r="D784" s="24" t="s">
         <v>1858</v>
       </c>
@@ -59980,7 +60001,7 @@
       <c r="I784" s="19"/>
       <c r="J784" s="25"/>
     </row>
-    <row r="785" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="785" spans="4:10">
       <c r="D785" s="24" t="s">
         <v>1859</v>
       </c>
@@ -59991,7 +60012,7 @@
       <c r="I785" s="19"/>
       <c r="J785" s="25"/>
     </row>
-    <row r="786" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="786" spans="4:10">
       <c r="D786" s="24" t="s">
         <v>1860</v>
       </c>
@@ -60002,7 +60023,7 @@
       <c r="I786" s="19"/>
       <c r="J786" s="25"/>
     </row>
-    <row r="787" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="787" spans="4:10">
       <c r="D787" s="24" t="s">
         <v>1861</v>
       </c>
@@ -60013,7 +60034,7 @@
       <c r="I787" s="19"/>
       <c r="J787" s="25"/>
     </row>
-    <row r="788" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="788" spans="4:10">
       <c r="D788" s="24" t="s">
         <v>1862</v>
       </c>
@@ -60024,7 +60045,7 @@
       <c r="I788" s="19"/>
       <c r="J788" s="25"/>
     </row>
-    <row r="789" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="789" spans="4:10">
       <c r="D789" s="24" t="s">
         <v>1863</v>
       </c>
@@ -60035,7 +60056,7 @@
       <c r="I789" s="19"/>
       <c r="J789" s="25"/>
     </row>
-    <row r="790" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="790" spans="4:10">
       <c r="D790" s="24" t="s">
         <v>1864</v>
       </c>
@@ -60046,7 +60067,7 @@
       <c r="I790" s="19"/>
       <c r="J790" s="25"/>
     </row>
-    <row r="791" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="791" spans="4:10">
       <c r="D791" s="24" t="s">
         <v>1865</v>
       </c>
@@ -60057,7 +60078,7 @@
       <c r="I791" s="19"/>
       <c r="J791" s="25"/>
     </row>
-    <row r="792" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="792" spans="4:10">
       <c r="D792" s="24" t="s">
         <v>1866</v>
       </c>
@@ -60068,7 +60089,7 @@
       <c r="I792" s="19"/>
       <c r="J792" s="25"/>
     </row>
-    <row r="793" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="793" spans="4:10">
       <c r="D793" s="24" t="s">
         <v>1867</v>
       </c>
@@ -60079,7 +60100,7 @@
       <c r="I793" s="19"/>
       <c r="J793" s="25"/>
     </row>
-    <row r="794" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="794" spans="4:10">
       <c r="D794" s="24" t="s">
         <v>1868</v>
       </c>
@@ -60090,7 +60111,7 @@
       <c r="I794" s="19"/>
       <c r="J794" s="25"/>
     </row>
-    <row r="795" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="795" spans="4:10">
       <c r="D795" s="24" t="s">
         <v>1869</v>
       </c>
@@ -60101,7 +60122,7 @@
       <c r="I795" s="19"/>
       <c r="J795" s="25"/>
     </row>
-    <row r="796" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="796" spans="4:10">
       <c r="D796" s="24" t="s">
         <v>1870</v>
       </c>
@@ -60112,7 +60133,7 @@
       <c r="I796" s="19"/>
       <c r="J796" s="25"/>
     </row>
-    <row r="797" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="797" spans="4:10">
       <c r="D797" s="24" t="s">
         <v>1871</v>
       </c>
@@ -60123,7 +60144,7 @@
       <c r="I797" s="19"/>
       <c r="J797" s="25"/>
     </row>
-    <row r="798" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="798" spans="4:10">
       <c r="D798" s="24" t="s">
         <v>1872</v>
       </c>
@@ -60134,7 +60155,7 @@
       <c r="I798" s="19"/>
       <c r="J798" s="25"/>
     </row>
-    <row r="799" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="799" spans="4:10">
       <c r="D799" s="24" t="s">
         <v>1873</v>
       </c>
@@ -60145,7 +60166,7 @@
       <c r="I799" s="19"/>
       <c r="J799" s="25"/>
     </row>
-    <row r="800" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="800" spans="4:10">
       <c r="D800" s="24" t="s">
         <v>1874</v>
       </c>
@@ -60156,7 +60177,7 @@
       <c r="I800" s="19"/>
       <c r="J800" s="25"/>
     </row>
-    <row r="801" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="801" spans="4:10">
       <c r="D801" s="24" t="s">
         <v>1875</v>
       </c>
@@ -60167,7 +60188,7 @@
       <c r="I801" s="19"/>
       <c r="J801" s="25"/>
     </row>
-    <row r="802" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="802" spans="4:10">
       <c r="D802" s="24" t="s">
         <v>1876</v>
       </c>
@@ -60178,7 +60199,7 @@
       <c r="I802" s="19"/>
       <c r="J802" s="25"/>
     </row>
-    <row r="803" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="803" spans="4:10">
       <c r="D803" s="24" t="s">
         <v>1877</v>
       </c>
@@ -60189,7 +60210,7 @@
       <c r="I803" s="19"/>
       <c r="J803" s="25"/>
     </row>
-    <row r="804" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="804" spans="4:10">
       <c r="D804" s="24" t="s">
         <v>1878</v>
       </c>
@@ -60200,7 +60221,7 @@
       <c r="I804" s="19"/>
       <c r="J804" s="25"/>
     </row>
-    <row r="805" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="805" spans="4:10">
       <c r="D805" s="24" t="s">
         <v>1879</v>
       </c>
@@ -60211,7 +60232,7 @@
       <c r="I805" s="19"/>
       <c r="J805" s="25"/>
     </row>
-    <row r="806" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="806" spans="4:10">
       <c r="D806" s="24" t="s">
         <v>1880</v>
       </c>
@@ -60222,7 +60243,7 @@
       <c r="I806" s="19"/>
       <c r="J806" s="25"/>
     </row>
-    <row r="807" spans="4:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="4:10" ht="14.25" thickBot="1">
       <c r="D807" s="26" t="s">
         <v>1881</v>
       </c>

--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1884">
   <si>
     <t>和田</t>
   </si>
@@ -5764,12 +5764,28 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>香川元景 か香川之景 か曖昧。</t>
+    <rPh sb="6" eb="8">
+      <t>カガワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイマイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6348,11 +6364,11 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F582" sqref="F582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
@@ -6376,7 +6392,7 @@
     <col min="34" max="38" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25">
+    <row r="1" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>1833</v>
       </c>
@@ -6477,7 +6493,7 @@
       </c>
       <c r="AM1" s="6"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6565,7 +6581,7 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6713,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6867,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6941,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7095,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7172,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7246,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7323,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7400,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7474,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7548,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7622,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7696,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7770,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7847,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7924,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8001,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8075,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8149,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8226,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8303,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8383,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8463,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8540,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8617,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8691,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8765,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8842,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8916,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8990,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9067,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9141,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9215,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9286,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9357,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9431,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9505,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9582,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9659,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9733,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9807,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9884,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9958,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10035,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10109,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10180,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10254,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10328,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10402,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10476,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10550,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10624,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10701,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10775,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10846,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10920,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10994,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11065,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11139,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11213,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11290,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11364,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11438,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11512,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11589,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11666,7 +11682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11740,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11814,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11891,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11965,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12042,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12119,7 +12135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12196,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12276,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12353,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12427,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12504,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12581,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12658,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12732,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12806,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12880,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12954,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13028,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13102,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13176,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13250,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13324,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13398,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13472,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13546,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13620,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13694,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13768,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13839,7 +13855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13913,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13984,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14055,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14129,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14203,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14277,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14351,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:32">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14425,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14499,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:32">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14573,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14647,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:32">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14721,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:32">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14792,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14866,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14940,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15017,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15094,7 +15110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15168,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15242,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15316,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15390,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15464,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15535,7 +15551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15609,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15689,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15766,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15840,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15914,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15988,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16062,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16139,7 +16155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16213,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16287,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16361,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16441,7 +16457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16518,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16595,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16672,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16749,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16823,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16900,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16977,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17054,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17125,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17199,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17270,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17341,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17415,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17489,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17563,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17640,7 +17656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17714,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17794,7 +17810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17871,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17945,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18022,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18096,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18170,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18244,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18318,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18392,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18466,7 +18482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18543,7 +18559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18617,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18700,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18774,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18845,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18919,7 +18935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18993,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19076,7 +19092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19159,7 +19175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19239,7 +19255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19319,7 +19335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19399,7 +19415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19482,7 +19498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19553,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:38">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19627,7 +19643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19701,7 +19717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19775,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19849,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19923,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20000,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20074,7 +20090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20151,7 +20167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20225,7 +20241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20302,7 +20318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20376,7 +20392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20450,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20524,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20598,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20672,7 +20688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20746,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20820,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20894,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:35">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
@@ -20968,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21042,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21116,7 +21132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21190,7 +21206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:35">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21264,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21338,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>199</v>
       </c>
@@ -21412,7 +21428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:35">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>200</v>
       </c>
@@ -21486,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>201</v>
       </c>
@@ -21557,7 +21573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:35">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>202</v>
       </c>
@@ -21631,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21702,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>204</v>
       </c>
@@ -21776,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>205</v>
       </c>
@@ -21853,7 +21869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:35">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>206</v>
       </c>
@@ -21924,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>207</v>
       </c>
@@ -21998,7 +22014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:34">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>208</v>
       </c>
@@ -22075,7 +22091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:34">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>209</v>
       </c>
@@ -22152,7 +22168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:34">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22226,7 +22242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:34">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22303,7 +22319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:34">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22377,7 +22393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:34">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22448,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:34">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>214</v>
       </c>
@@ -22522,7 +22538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:34">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22596,7 +22612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:34">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>216</v>
       </c>
@@ -22667,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:34">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>217</v>
       </c>
@@ -22744,7 +22760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:34">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>218</v>
       </c>
@@ -22818,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>219</v>
       </c>
@@ -22889,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>220</v>
       </c>
@@ -22960,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23034,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:34">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23108,7 +23124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:34">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23182,7 +23198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:35">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23259,7 +23275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23333,7 +23349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:35">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23401,7 +23417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23472,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>228</v>
       </c>
@@ -23543,7 +23559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23614,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23685,7 +23701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23759,7 +23775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:35">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23830,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23901,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:35">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23975,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24049,7 +24065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>236</v>
       </c>
@@ -24123,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>237</v>
       </c>
@@ -24200,7 +24216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>238</v>
       </c>
@@ -24274,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>239</v>
       </c>
@@ -24351,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:38">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>240</v>
       </c>
@@ -24425,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:38">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24499,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:38">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24576,7 +24592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24653,7 +24669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24727,7 +24743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24801,7 +24817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24875,7 +24891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:38">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24946,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:38">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>248</v>
       </c>
@@ -25020,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:38">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>249</v>
       </c>
@@ -25094,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:38">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>250</v>
       </c>
@@ -25168,7 +25184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:38">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>251</v>
       </c>
@@ -25242,7 +25258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:38">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25313,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:38">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25384,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:38">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25458,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:38">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25535,7 +25551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:35">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25609,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25680,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25751,7 +25767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25825,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25899,7 +25915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25976,7 +25992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:35">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>262</v>
       </c>
@@ -26050,7 +26066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:35">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26124,7 +26140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26198,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26272,7 +26288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26346,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26420,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26494,7 +26510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:35">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>269</v>
       </c>
@@ -26571,7 +26587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:35">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>270</v>
       </c>
@@ -26645,7 +26661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>271</v>
       </c>
@@ -26716,7 +26732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26787,7 +26803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:36">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>273</v>
       </c>
@@ -26861,7 +26877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:36">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>274</v>
       </c>
@@ -26935,7 +26951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:36">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>275</v>
       </c>
@@ -27006,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:36">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27077,7 +27093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:36">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>277</v>
       </c>
@@ -27151,7 +27167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:36">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27225,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:36">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27299,7 +27315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:36">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27373,7 +27389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:36">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27444,7 +27460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:36">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27515,7 +27531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:36">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27589,7 +27605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:36">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>284</v>
       </c>
@@ -27663,7 +27679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:36">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>285</v>
       </c>
@@ -27740,7 +27756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:36">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>286</v>
       </c>
@@ -27820,7 +27836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:36">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>287</v>
       </c>
@@ -27894,7 +27910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:38">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>288</v>
       </c>
@@ -27968,7 +27984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:38">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>289</v>
       </c>
@@ -28042,7 +28058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:38">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>290</v>
       </c>
@@ -28119,7 +28135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:38">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>291</v>
       </c>
@@ -28193,7 +28209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:38">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>292</v>
       </c>
@@ -28273,7 +28289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:38">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>293</v>
       </c>
@@ -28353,7 +28369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:38">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>294</v>
       </c>
@@ -28433,7 +28449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:38">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>295</v>
       </c>
@@ -28507,7 +28523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>296</v>
       </c>
@@ -28584,7 +28600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:38">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>297</v>
       </c>
@@ -28658,7 +28674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:38">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>298</v>
       </c>
@@ -28732,7 +28748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>299</v>
       </c>
@@ -28809,7 +28825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:38">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>300</v>
       </c>
@@ -28886,7 +28902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:38">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>301</v>
       </c>
@@ -28963,7 +28979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:38">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>302</v>
       </c>
@@ -29040,7 +29056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:38">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>303</v>
       </c>
@@ -29117,7 +29133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:38">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>304</v>
       </c>
@@ -29197,7 +29213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:38">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>305</v>
       </c>
@@ -29277,7 +29293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:38">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>306</v>
       </c>
@@ -29357,7 +29373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:38">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>307</v>
       </c>
@@ -29437,7 +29453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:38">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>308</v>
       </c>
@@ -29517,7 +29533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:38">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>309</v>
       </c>
@@ -29594,7 +29610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:38">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>310</v>
       </c>
@@ -29668,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:38">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>311</v>
       </c>
@@ -29742,7 +29758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>312</v>
       </c>
@@ -29816,7 +29832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:38">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>313</v>
       </c>
@@ -29890,7 +29906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:38">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>314</v>
       </c>
@@ -29964,7 +29980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:38">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>315</v>
       </c>
@@ -30038,7 +30054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:38">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>316</v>
       </c>
@@ -30112,7 +30128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>317</v>
       </c>
@@ -30186,7 +30202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:38">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>318</v>
       </c>
@@ -30260,7 +30276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:38">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>319</v>
       </c>
@@ -30334,7 +30350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:38">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>320</v>
       </c>
@@ -30411,7 +30427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:38">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>321</v>
       </c>
@@ -30485,7 +30501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:38">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>322</v>
       </c>
@@ -30559,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:38">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>323</v>
       </c>
@@ -30633,7 +30649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:38">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>324</v>
       </c>
@@ -30704,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:38">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>325</v>
       </c>
@@ -30778,7 +30794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:38">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>326</v>
       </c>
@@ -30855,7 +30871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:38">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>327</v>
       </c>
@@ -30932,7 +30948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:38">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>328</v>
       </c>
@@ -31006,7 +31022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:38">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>329</v>
       </c>
@@ -31080,7 +31096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:38">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>330</v>
       </c>
@@ -31154,7 +31170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:38">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>331</v>
       </c>
@@ -31231,7 +31247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:38">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>332</v>
       </c>
@@ -31305,7 +31321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:38">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>333</v>
       </c>
@@ -31379,7 +31395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:38">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>334</v>
       </c>
@@ -31456,7 +31472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:38">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>335</v>
       </c>
@@ -31530,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>336</v>
       </c>
@@ -31604,7 +31620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:38">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>337</v>
       </c>
@@ -31675,7 +31691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:38">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>338</v>
       </c>
@@ -31746,7 +31762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>339</v>
       </c>
@@ -31817,7 +31833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:38">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>340</v>
       </c>
@@ -31891,7 +31907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:38">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>341</v>
       </c>
@@ -31965,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:38">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>342</v>
       </c>
@@ -32039,7 +32055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:38">
+    <row r="344" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>343</v>
       </c>
@@ -32113,7 +32129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:38">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>344</v>
       </c>
@@ -32193,7 +32209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:38">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>345</v>
       </c>
@@ -32270,7 +32286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:38">
+    <row r="347" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>346</v>
       </c>
@@ -32350,7 +32366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:38">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>347</v>
       </c>
@@ -32430,7 +32446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:38">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>348</v>
       </c>
@@ -32510,7 +32526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:38">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>349</v>
       </c>
@@ -32590,7 +32606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:38">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>350</v>
       </c>
@@ -32670,7 +32686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:38">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>351</v>
       </c>
@@ -32750,7 +32766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:38">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>352</v>
       </c>
@@ -32827,7 +32843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:38">
+    <row r="354" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>353</v>
       </c>
@@ -32904,7 +32920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:38">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>354</v>
       </c>
@@ -32981,7 +32997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:38">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>355</v>
       </c>
@@ -33058,7 +33074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:38">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>356</v>
       </c>
@@ -33135,7 +33151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:38">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>357</v>
       </c>
@@ -33212,7 +33228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:38">
+    <row r="359" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>358</v>
       </c>
@@ -33289,7 +33305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:38">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>359</v>
       </c>
@@ -33366,7 +33382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:38">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>360</v>
       </c>
@@ -33443,7 +33459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:38">
+    <row r="362" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>361</v>
       </c>
@@ -33520,7 +33536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:38">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>362</v>
       </c>
@@ -33597,7 +33613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:38">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>363</v>
       </c>
@@ -33671,7 +33687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:38">
+    <row r="365" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>364</v>
       </c>
@@ -33745,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:38">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>365</v>
       </c>
@@ -33819,7 +33835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:38">
+    <row r="367" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>366</v>
       </c>
@@ -33890,7 +33906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:38">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>367</v>
       </c>
@@ -33964,7 +33980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>368</v>
       </c>
@@ -34035,7 +34051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>369</v>
       </c>
@@ -34109,7 +34125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:34">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>370</v>
       </c>
@@ -34180,7 +34196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:34">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>371</v>
       </c>
@@ -34254,7 +34270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>372</v>
       </c>
@@ -34328,7 +34344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>373</v>
       </c>
@@ -34399,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>374</v>
       </c>
@@ -34473,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>375</v>
       </c>
@@ -34550,7 +34566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:34">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>376</v>
       </c>
@@ -34630,7 +34646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:34">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>377</v>
       </c>
@@ -34707,7 +34723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:34">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>378</v>
       </c>
@@ -34784,7 +34800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>379</v>
       </c>
@@ -34861,7 +34877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>380</v>
       </c>
@@ -34941,7 +34957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:34">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>381</v>
       </c>
@@ -35021,7 +35037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:34">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>382</v>
       </c>
@@ -35095,7 +35111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:34">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>383</v>
       </c>
@@ -35169,7 +35185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:35">
+    <row r="385" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>384</v>
       </c>
@@ -35243,7 +35259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:35">
+    <row r="386" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>385</v>
       </c>
@@ -35320,7 +35336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:35">
+    <row r="387" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>386</v>
       </c>
@@ -35394,7 +35410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:35">
+    <row r="388" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>387</v>
       </c>
@@ -35468,7 +35484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:35">
+    <row r="389" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>388</v>
       </c>
@@ -35542,7 +35558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:35">
+    <row r="390" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>389</v>
       </c>
@@ -35613,7 +35629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:35">
+    <row r="391" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>390</v>
       </c>
@@ -35687,7 +35703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:35">
+    <row r="392" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>391</v>
       </c>
@@ -35764,7 +35780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:35">
+    <row r="393" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>392</v>
       </c>
@@ -35841,7 +35857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:35">
+    <row r="394" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>393</v>
       </c>
@@ -35915,7 +35931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:35">
+    <row r="395" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>394</v>
       </c>
@@ -35989,7 +36005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:35">
+    <row r="396" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>395</v>
       </c>
@@ -36063,7 +36079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:35">
+    <row r="397" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>396</v>
       </c>
@@ -36137,7 +36153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:35">
+    <row r="398" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>397</v>
       </c>
@@ -36214,7 +36230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:35">
+    <row r="399" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>398</v>
       </c>
@@ -36291,7 +36307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:35">
+    <row r="400" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>399</v>
       </c>
@@ -36365,7 +36381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:35">
+    <row r="401" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>400</v>
       </c>
@@ -36439,7 +36455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:35">
+    <row r="402" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>401</v>
       </c>
@@ -36513,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:35">
+    <row r="403" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>402</v>
       </c>
@@ -36587,7 +36603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:35">
+    <row r="404" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>403</v>
       </c>
@@ -36661,7 +36677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:35">
+    <row r="405" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>404</v>
       </c>
@@ -36735,7 +36751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:35">
+    <row r="406" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>405</v>
       </c>
@@ -36809,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:35">
+    <row r="407" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>406</v>
       </c>
@@ -36883,7 +36899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:35">
+    <row r="408" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>407</v>
       </c>
@@ -36960,7 +36976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:35">
+    <row r="409" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>408</v>
       </c>
@@ -37031,7 +37047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:35">
+    <row r="410" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>409</v>
       </c>
@@ -37108,7 +37124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:35">
+    <row r="411" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>410</v>
       </c>
@@ -37182,7 +37198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:35">
+    <row r="412" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>411</v>
       </c>
@@ -37256,7 +37272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:35">
+    <row r="413" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>412</v>
       </c>
@@ -37330,7 +37346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:35">
+    <row r="414" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>413</v>
       </c>
@@ -37404,7 +37420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:35">
+    <row r="415" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>414</v>
       </c>
@@ -37481,7 +37497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:35">
+    <row r="416" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>415</v>
       </c>
@@ -37555,7 +37571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:35">
+    <row r="417" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>416</v>
       </c>
@@ -37626,7 +37642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:35">
+    <row r="418" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>417</v>
       </c>
@@ -37700,7 +37716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:35">
+    <row r="419" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>418</v>
       </c>
@@ -37774,7 +37790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:35">
+    <row r="420" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>419</v>
       </c>
@@ -37845,7 +37861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:35">
+    <row r="421" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>420</v>
       </c>
@@ -37922,7 +37938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:35">
+    <row r="422" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>421</v>
       </c>
@@ -37990,7 +38006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:35">
+    <row r="423" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>422</v>
       </c>
@@ -38067,7 +38083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:35">
+    <row r="424" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>423</v>
       </c>
@@ -38141,7 +38157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:35">
+    <row r="425" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>424</v>
       </c>
@@ -38218,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:35">
+    <row r="426" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>425</v>
       </c>
@@ -38295,7 +38311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:35">
+    <row r="427" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>426</v>
       </c>
@@ -38369,7 +38385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:35">
+    <row r="428" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>427</v>
       </c>
@@ -38446,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:35">
+    <row r="429" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>428</v>
       </c>
@@ -38520,7 +38536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:35">
+    <row r="430" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>429</v>
       </c>
@@ -38594,7 +38610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:35">
+    <row r="431" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>430</v>
       </c>
@@ -38665,7 +38681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:35">
+    <row r="432" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>431</v>
       </c>
@@ -38742,7 +38758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:32">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>432</v>
       </c>
@@ -38813,7 +38829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:32">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>433</v>
       </c>
@@ -38890,7 +38906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:32">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>434</v>
       </c>
@@ -38961,7 +38977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:32">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>435</v>
       </c>
@@ -39032,7 +39048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:32">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>436</v>
       </c>
@@ -39109,7 +39125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:32">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>437</v>
       </c>
@@ -39186,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:32">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>438</v>
       </c>
@@ -39260,7 +39276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:32">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>439</v>
       </c>
@@ -39334,7 +39350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:32">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>440</v>
       </c>
@@ -39408,7 +39424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:32">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>441</v>
       </c>
@@ -39482,7 +39498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:32">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>442</v>
       </c>
@@ -39556,7 +39572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:32">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>443</v>
       </c>
@@ -39630,7 +39646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:32">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>444</v>
       </c>
@@ -39701,7 +39717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:32">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>445</v>
       </c>
@@ -39775,7 +39791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:32">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>446</v>
       </c>
@@ -39849,7 +39865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:32">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>447</v>
       </c>
@@ -39923,7 +39939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:36">
+    <row r="449" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>448</v>
       </c>
@@ -39997,7 +40013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:36">
+    <row r="450" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>449</v>
       </c>
@@ -40071,7 +40087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:36">
+    <row r="451" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>450</v>
       </c>
@@ -40142,7 +40158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:36">
+    <row r="452" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>451</v>
       </c>
@@ -40216,7 +40232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:36">
+    <row r="453" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>452</v>
       </c>
@@ -40287,7 +40303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:36">
+    <row r="454" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>453</v>
       </c>
@@ -40361,7 +40377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:36">
+    <row r="455" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>454</v>
       </c>
@@ -40438,7 +40454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:36">
+    <row r="456" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>455</v>
       </c>
@@ -40512,7 +40528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:36">
+    <row r="457" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>456</v>
       </c>
@@ -40586,7 +40602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:36">
+    <row r="458" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>457</v>
       </c>
@@ -40660,7 +40676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:36">
+    <row r="459" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>458</v>
       </c>
@@ -40734,7 +40750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:36">
+    <row r="460" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>459</v>
       </c>
@@ -40808,7 +40824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:36">
+    <row r="461" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>460</v>
       </c>
@@ -40882,7 +40898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:36">
+    <row r="462" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>461</v>
       </c>
@@ -40962,7 +40978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:36">
+    <row r="463" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>462</v>
       </c>
@@ -41036,7 +41052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:36">
+    <row r="464" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>463</v>
       </c>
@@ -41110,7 +41126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:37">
+    <row r="465" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>464</v>
       </c>
@@ -41184,7 +41200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:37">
+    <row r="466" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>465</v>
       </c>
@@ -41261,7 +41277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:37">
+    <row r="467" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>466</v>
       </c>
@@ -41335,7 +41351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:37">
+    <row r="468" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>467</v>
       </c>
@@ -41412,7 +41428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:37">
+    <row r="469" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>468</v>
       </c>
@@ -41489,7 +41505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:37">
+    <row r="470" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>469</v>
       </c>
@@ -41563,7 +41579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:37">
+    <row r="471" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>470</v>
       </c>
@@ -41637,7 +41653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:37">
+    <row r="472" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>471</v>
       </c>
@@ -41714,7 +41730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:37">
+    <row r="473" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>472</v>
       </c>
@@ -41791,7 +41807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:37">
+    <row r="474" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>473</v>
       </c>
@@ -41868,7 +41884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:37">
+    <row r="475" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>474</v>
       </c>
@@ -41945,7 +41961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:37">
+    <row r="476" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>475</v>
       </c>
@@ -42028,7 +42044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:37">
+    <row r="477" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>476</v>
       </c>
@@ -42111,7 +42127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:37">
+    <row r="478" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>477</v>
       </c>
@@ -42194,7 +42210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:37">
+    <row r="479" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>478</v>
       </c>
@@ -42271,7 +42287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:37">
+    <row r="480" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>479</v>
       </c>
@@ -42348,7 +42364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:38">
+    <row r="481" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>480</v>
       </c>
@@ -42422,7 +42438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:38">
+    <row r="482" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>481</v>
       </c>
@@ -42499,7 +42515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:38">
+    <row r="483" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>482</v>
       </c>
@@ -42573,7 +42589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:38">
+    <row r="484" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>483</v>
       </c>
@@ -42647,7 +42663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:38">
+    <row r="485" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>484</v>
       </c>
@@ -42724,7 +42740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:38">
+    <row r="486" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>485</v>
       </c>
@@ -42801,7 +42817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:38">
+    <row r="487" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>486</v>
       </c>
@@ -42878,7 +42894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:38">
+    <row r="488" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>487</v>
       </c>
@@ -42955,7 +42971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:38">
+    <row r="489" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>488</v>
       </c>
@@ -43029,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:38">
+    <row r="490" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>489</v>
       </c>
@@ -43103,7 +43119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:38">
+    <row r="491" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>490</v>
       </c>
@@ -43177,7 +43193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:38">
+    <row r="492" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>491</v>
       </c>
@@ -43254,7 +43270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:38">
+    <row r="493" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>492</v>
       </c>
@@ -43328,7 +43344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:38">
+    <row r="494" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>493</v>
       </c>
@@ -43402,7 +43418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:38">
+    <row r="495" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>494</v>
       </c>
@@ -43479,7 +43495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:38">
+    <row r="496" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>495</v>
       </c>
@@ -43559,7 +43575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:38">
+    <row r="497" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>496</v>
       </c>
@@ -43639,7 +43655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:38">
+    <row r="498" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>497</v>
       </c>
@@ -43713,7 +43729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:38">
+    <row r="499" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>498</v>
       </c>
@@ -43787,7 +43803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:38">
+    <row r="500" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>499</v>
       </c>
@@ -43864,7 +43880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:38">
+    <row r="501" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>500</v>
       </c>
@@ -43941,7 +43957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:38">
+    <row r="502" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>501</v>
       </c>
@@ -44015,7 +44031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:38">
+    <row r="503" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>502</v>
       </c>
@@ -44089,7 +44105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:38">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>503</v>
       </c>
@@ -44163,7 +44179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:38">
+    <row r="505" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>504</v>
       </c>
@@ -44234,7 +44250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:38">
+    <row r="506" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>505</v>
       </c>
@@ -44308,7 +44324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:38">
+    <row r="507" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>506</v>
       </c>
@@ -44382,7 +44398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:38">
+    <row r="508" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>507</v>
       </c>
@@ -44456,7 +44472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:38">
+    <row r="509" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>508</v>
       </c>
@@ -44530,7 +44546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:38">
+    <row r="510" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>509</v>
       </c>
@@ -44604,7 +44620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:38">
+    <row r="511" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>510</v>
       </c>
@@ -44678,7 +44694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:38">
+    <row r="512" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>511</v>
       </c>
@@ -44752,7 +44768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:32">
+    <row r="513" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>512</v>
       </c>
@@ -44826,7 +44842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:32">
+    <row r="514" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>513</v>
       </c>
@@ -44900,7 +44916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:32">
+    <row r="515" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>514</v>
       </c>
@@ -44974,7 +44990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:32">
+    <row r="516" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>515</v>
       </c>
@@ -45048,7 +45064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:32">
+    <row r="517" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>516</v>
       </c>
@@ -45125,7 +45141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:32">
+    <row r="518" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>517</v>
       </c>
@@ -45199,7 +45215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:32">
+    <row r="519" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>518</v>
       </c>
@@ -45273,7 +45289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:32">
+    <row r="520" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>519</v>
       </c>
@@ -45347,7 +45363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:32">
+    <row r="521" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>520</v>
       </c>
@@ -45421,7 +45437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:32">
+    <row r="522" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>521</v>
       </c>
@@ -45495,7 +45511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:32">
+    <row r="523" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>522</v>
       </c>
@@ -45569,7 +45585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:32">
+    <row r="524" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>523</v>
       </c>
@@ -45643,7 +45659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:32">
+    <row r="525" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>524</v>
       </c>
@@ -45717,7 +45733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:32">
+    <row r="526" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>525</v>
       </c>
@@ -45791,7 +45807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:32">
+    <row r="527" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>526</v>
       </c>
@@ -45865,7 +45881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:32">
+    <row r="528" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>527</v>
       </c>
@@ -45939,7 +45955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:38">
+    <row r="529" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>528</v>
       </c>
@@ -46016,7 +46032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:38">
+    <row r="530" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>529</v>
       </c>
@@ -46090,7 +46106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:38">
+    <row r="531" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>530</v>
       </c>
@@ -46164,7 +46180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:38">
+    <row r="532" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>531</v>
       </c>
@@ -46238,7 +46254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:38">
+    <row r="533" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>532</v>
       </c>
@@ -46312,7 +46328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:38">
+    <row r="534" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>533</v>
       </c>
@@ -46386,7 +46402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:38">
+    <row r="535" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>534</v>
       </c>
@@ -46460,7 +46476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:38">
+    <row r="536" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>535</v>
       </c>
@@ -46534,7 +46550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:38">
+    <row r="537" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>536</v>
       </c>
@@ -46608,7 +46624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:38">
+    <row r="538" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>537</v>
       </c>
@@ -46682,7 +46698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:38">
+    <row r="539" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>538</v>
       </c>
@@ -46756,7 +46772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:38">
+    <row r="540" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>539</v>
       </c>
@@ -46830,7 +46846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:38">
+    <row r="541" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>540</v>
       </c>
@@ -46904,7 +46920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:38">
+    <row r="542" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>541</v>
       </c>
@@ -46978,7 +46994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:38">
+    <row r="543" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>542</v>
       </c>
@@ -47052,7 +47068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:38">
+    <row r="544" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>543</v>
       </c>
@@ -47135,7 +47151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:38">
+    <row r="545" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>544</v>
       </c>
@@ -47209,7 +47225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:38">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>545</v>
       </c>
@@ -47283,7 +47299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:38">
+    <row r="547" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>546</v>
       </c>
@@ -47360,7 +47376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:38">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>547</v>
       </c>
@@ -47440,7 +47456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:38">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>548</v>
       </c>
@@ -47520,7 +47536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:38">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>549</v>
       </c>
@@ -47600,7 +47616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:38">
+    <row r="551" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>550</v>
       </c>
@@ -47680,7 +47696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:38">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>551</v>
       </c>
@@ -47763,7 +47779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:38">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>552</v>
       </c>
@@ -47843,7 +47859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:38">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>553</v>
       </c>
@@ -47923,7 +47939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:38">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>554</v>
       </c>
@@ -48003,7 +48019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:38">
+    <row r="556" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>555</v>
       </c>
@@ -48083,7 +48099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:38">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>556</v>
       </c>
@@ -48163,7 +48179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:38">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>557</v>
       </c>
@@ -48237,7 +48253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:38">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>558</v>
       </c>
@@ -48314,7 +48330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:38">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>559</v>
       </c>
@@ -48388,7 +48404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:38">
+    <row r="561" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>560</v>
       </c>
@@ -48462,7 +48478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:38">
+    <row r="562" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>561</v>
       </c>
@@ -48536,7 +48552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:38">
+    <row r="563" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>562</v>
       </c>
@@ -48610,7 +48626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:38">
+    <row r="564" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>563</v>
       </c>
@@ -48687,7 +48703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:38">
+    <row r="565" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>564</v>
       </c>
@@ -48764,7 +48780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:38">
+    <row r="566" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>565</v>
       </c>
@@ -48841,7 +48857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:38">
+    <row r="567" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>566</v>
       </c>
@@ -48915,7 +48931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:38">
+    <row r="568" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>567</v>
       </c>
@@ -48989,7 +49005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:38">
+    <row r="569" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>568</v>
       </c>
@@ -49063,7 +49079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:38">
+    <row r="570" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>569</v>
       </c>
@@ -49137,7 +49153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:38">
+    <row r="571" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>570</v>
       </c>
@@ -49214,7 +49230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:38">
+    <row r="572" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>571</v>
       </c>
@@ -49288,7 +49304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:38">
+    <row r="573" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>572</v>
       </c>
@@ -49362,7 +49378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:38">
+    <row r="574" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>573</v>
       </c>
@@ -49436,7 +49452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:38">
+    <row r="575" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>574</v>
       </c>
@@ -49513,7 +49529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:38">
+    <row r="576" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>575</v>
       </c>
@@ -49587,7 +49603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:36">
+    <row r="577" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>576</v>
       </c>
@@ -49661,7 +49677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:36">
+    <row r="578" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>577</v>
       </c>
@@ -49735,7 +49751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:36">
+    <row r="579" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>578</v>
       </c>
@@ -49809,7 +49825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:36">
+    <row r="580" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>579</v>
       </c>
@@ -49883,7 +49899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:36">
+    <row r="581" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>580</v>
       </c>
@@ -49957,7 +49973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:36">
+    <row r="582" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>581</v>
       </c>
@@ -49970,6 +49986,9 @@
       <c r="E582" t="s">
         <v>57</v>
       </c>
+      <c r="F582" s="1" t="s">
+        <v>1883</v>
+      </c>
       <c r="G582" s="2">
         <v>1541</v>
       </c>
@@ -50031,7 +50050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:36">
+    <row r="583" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>582</v>
       </c>
@@ -50105,7 +50124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:36">
+    <row r="584" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>583</v>
       </c>
@@ -50179,7 +50198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:36">
+    <row r="585" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>584</v>
       </c>
@@ -50256,7 +50275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:36">
+    <row r="586" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>585</v>
       </c>
@@ -50327,7 +50346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:36">
+    <row r="587" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>586</v>
       </c>
@@ -50404,7 +50423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:36">
+    <row r="588" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>587</v>
       </c>
@@ -50481,7 +50500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:36">
+    <row r="589" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>588</v>
       </c>
@@ -50555,7 +50574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:36">
+    <row r="590" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>589</v>
       </c>
@@ -50632,7 +50651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:36">
+    <row r="591" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>590</v>
       </c>
@@ -50706,7 +50725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:36">
+    <row r="592" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>591</v>
       </c>
@@ -50780,7 +50799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:35">
+    <row r="593" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>592</v>
       </c>
@@ -50854,7 +50873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:35">
+    <row r="594" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>593</v>
       </c>
@@ -50928,7 +50947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:35">
+    <row r="595" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>594</v>
       </c>
@@ -51002,7 +51021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:35">
+    <row r="596" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>595</v>
       </c>
@@ -51079,7 +51098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:35">
+    <row r="597" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>596</v>
       </c>
@@ -51156,7 +51175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:35">
+    <row r="598" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>597</v>
       </c>
@@ -51230,7 +51249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:35">
+    <row r="599" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>598</v>
       </c>
@@ -51304,7 +51323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:35">
+    <row r="600" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>599</v>
       </c>
@@ -51378,7 +51397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:35">
+    <row r="601" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>600</v>
       </c>
@@ -51449,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:35">
+    <row r="602" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>601</v>
       </c>
@@ -51523,7 +51542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:35">
+    <row r="603" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>602</v>
       </c>
@@ -51597,7 +51616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:35">
+    <row r="604" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>603</v>
       </c>
@@ -51671,7 +51690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:35">
+    <row r="605" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>604</v>
       </c>
@@ -51745,7 +51764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:35">
+    <row r="606" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>605</v>
       </c>
@@ -51816,7 +51835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:35">
+    <row r="607" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>606</v>
       </c>
@@ -51890,7 +51909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:35">
+    <row r="608" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>607</v>
       </c>
@@ -51964,7 +51983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:35">
+    <row r="609" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>608</v>
       </c>
@@ -52041,7 +52060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:35">
+    <row r="610" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>609</v>
       </c>
@@ -52115,7 +52134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:35">
+    <row r="611" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>610</v>
       </c>
@@ -52189,7 +52208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:35">
+    <row r="612" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>611</v>
       </c>
@@ -52263,7 +52282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:35">
+    <row r="613" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>612</v>
       </c>
@@ -52337,7 +52356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:35">
+    <row r="614" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>613</v>
       </c>
@@ -52417,7 +52436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:35">
+    <row r="615" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>614</v>
       </c>
@@ -52494,7 +52513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:35">
+    <row r="616" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>615</v>
       </c>
@@ -52568,7 +52587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:35">
+    <row r="617" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>616</v>
       </c>
@@ -52642,7 +52661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:35">
+    <row r="618" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>617</v>
       </c>
@@ -52719,7 +52738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:35">
+    <row r="619" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>618</v>
       </c>
@@ -52796,7 +52815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:35">
+    <row r="620" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>619</v>
       </c>
@@ -52873,7 +52892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:35">
+    <row r="621" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>620</v>
       </c>
@@ -52950,7 +52969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:35">
+    <row r="622" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>621</v>
       </c>
@@ -53027,7 +53046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:35">
+    <row r="623" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>622</v>
       </c>
@@ -53101,7 +53120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:35">
+    <row r="624" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>623</v>
       </c>
@@ -53175,7 +53194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:32">
+    <row r="625" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>624</v>
       </c>
@@ -53249,7 +53268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:32">
+    <row r="626" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>625</v>
       </c>
@@ -53323,7 +53342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:32">
+    <row r="627" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>626</v>
       </c>
@@ -53400,7 +53419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:32">
+    <row r="628" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>627</v>
       </c>
@@ -53474,7 +53493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:32">
+    <row r="629" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>628</v>
       </c>
@@ -53548,7 +53567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:32">
+    <row r="630" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>629</v>
       </c>
@@ -53622,7 +53641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:32">
+    <row r="631" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>630</v>
       </c>
@@ -53696,7 +53715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:32">
+    <row r="632" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>631</v>
       </c>
@@ -53770,7 +53789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:32">
+    <row r="633" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>632</v>
       </c>
@@ -53844,7 +53863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:32">
+    <row r="634" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>633</v>
       </c>
@@ -53918,7 +53937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:32">
+    <row r="635" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>634</v>
       </c>
@@ -53992,7 +54011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:32">
+    <row r="636" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>635</v>
       </c>
@@ -54066,7 +54085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:32">
+    <row r="637" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>636</v>
       </c>
@@ -54140,7 +54159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:32">
+    <row r="638" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>637</v>
       </c>
@@ -54214,7 +54233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:32">
+    <row r="639" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>638</v>
       </c>
@@ -54288,7 +54307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:32">
+    <row r="640" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>639</v>
       </c>
@@ -54362,7 +54381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:35">
+    <row r="641" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>640</v>
       </c>
@@ -54439,7 +54458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:35">
+    <row r="642" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>641</v>
       </c>
@@ -54513,7 +54532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:35">
+    <row r="643" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>642</v>
       </c>
@@ -54590,7 +54609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:35">
+    <row r="644" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>643</v>
       </c>
@@ -54664,7 +54683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:35">
+    <row r="645" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>644</v>
       </c>
@@ -54738,7 +54757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:35">
+    <row r="646" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>645</v>
       </c>
@@ -54812,7 +54831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:35">
+    <row r="647" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>646</v>
       </c>
@@ -54886,7 +54905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:35">
+    <row r="648" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>647</v>
       </c>
@@ -54960,7 +54979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:35">
+    <row r="649" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A649">
         <v>648</v>
       </c>
@@ -55034,7 +55053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:35">
+    <row r="650" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>649</v>
       </c>
@@ -55111,7 +55130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:35">
+    <row r="651" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>650</v>
       </c>
@@ -55185,7 +55204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:35">
+    <row r="652" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>651</v>
       </c>
@@ -55262,7 +55281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:35">
+    <row r="653" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A653">
         <v>652</v>
       </c>
@@ -55342,7 +55361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:35">
+    <row r="654" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A654">
         <v>653</v>
       </c>
@@ -55422,7 +55441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:35">
+    <row r="655" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A655">
         <v>654</v>
       </c>
@@ -55496,7 +55515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:35">
+    <row r="656" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A656">
         <v>655</v>
       </c>
@@ -55576,7 +55595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:32">
+    <row r="657" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A657">
         <v>656</v>
       </c>
@@ -55653,7 +55672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:32">
+    <row r="658" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A658">
         <v>657</v>
       </c>
@@ -55727,7 +55746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:32">
+    <row r="659" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>658</v>
       </c>
@@ -55801,7 +55820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:32">
+    <row r="660" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>659</v>
       </c>
@@ -55875,7 +55894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:32">
+    <row r="661" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>660</v>
       </c>
@@ -55949,7 +55968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:32">
+    <row r="662" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>661</v>
       </c>
@@ -56023,7 +56042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:32">
+    <row r="663" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>662</v>
       </c>
@@ -56097,7 +56116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:32">
+    <row r="664" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>663</v>
       </c>
@@ -56171,7 +56190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:32">
+    <row r="665" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>664</v>
       </c>
@@ -56245,7 +56264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:32">
+    <row r="666" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>665</v>
       </c>
@@ -56319,7 +56338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:32">
+    <row r="667" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>666</v>
       </c>
@@ -56393,7 +56412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:32">
+    <row r="668" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>667</v>
       </c>
@@ -56467,7 +56486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:32">
+    <row r="669" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>668</v>
       </c>
@@ -56544,7 +56563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:32">
+    <row r="670" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>669</v>
       </c>
@@ -56618,7 +56637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:32">
+    <row r="671" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>670</v>
       </c>
@@ -56692,7 +56711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:32">
+    <row r="672" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>671</v>
       </c>
@@ -56766,7 +56785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:34">
+    <row r="673" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>672</v>
       </c>
@@ -56840,7 +56859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:34">
+    <row r="674" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>673</v>
       </c>
@@ -56914,7 +56933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:34">
+    <row r="675" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>674</v>
       </c>
@@ -56988,7 +57007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:34">
+    <row r="676" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>675</v>
       </c>
@@ -57062,7 +57081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:34">
+    <row r="677" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>676</v>
       </c>
@@ -57136,7 +57155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:34">
+    <row r="678" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>677</v>
       </c>
@@ -57210,7 +57229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:34">
+    <row r="679" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A679">
         <v>678</v>
       </c>
@@ -57284,7 +57303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:34">
+    <row r="680" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>679</v>
       </c>
@@ -57358,7 +57377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:34">
+    <row r="681" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>680</v>
       </c>
@@ -57432,7 +57451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:34">
+    <row r="682" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>681</v>
       </c>
@@ -57506,7 +57525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:34">
+    <row r="683" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>682</v>
       </c>
@@ -57580,7 +57599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:34">
+    <row r="684" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>683</v>
       </c>
@@ -57654,7 +57673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:34">
+    <row r="685" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>684</v>
       </c>
@@ -57731,7 +57750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:34">
+    <row r="686" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>685</v>
       </c>
@@ -57808,7 +57827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:34">
+    <row r="687" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>686</v>
       </c>
@@ -57885,7 +57904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:34">
+    <row r="688" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>687</v>
       </c>
@@ -57962,7 +57981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:34">
+    <row r="689" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>688</v>
       </c>
@@ -58039,7 +58058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:34">
+    <row r="690" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>689</v>
       </c>
@@ -58116,7 +58135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:34">
+    <row r="691" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>690</v>
       </c>
@@ -58190,7 +58209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:34">
+    <row r="692" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>691</v>
       </c>
@@ -58264,7 +58283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:34">
+    <row r="693" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>692</v>
       </c>
@@ -58338,7 +58357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:34">
+    <row r="694" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>693</v>
       </c>
@@ -58412,7 +58431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:34">
+    <row r="695" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>694</v>
       </c>
@@ -58486,7 +58505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:34">
+    <row r="696" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>695</v>
       </c>
@@ -58560,7 +58579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:34">
+    <row r="697" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>696</v>
       </c>
@@ -58637,7 +58656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:34">
+    <row r="698" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A698">
         <v>697</v>
       </c>
@@ -58711,7 +58730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:34">
+    <row r="699" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>698</v>
       </c>
@@ -58785,7 +58804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:34">
+    <row r="700" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>699</v>
       </c>
@@ -58862,7 +58881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:34">
+    <row r="701" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>700</v>
       </c>
@@ -58939,7 +58958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:34">
+    <row r="702" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A702">
         <v>701</v>
       </c>
@@ -58962,7 +58981,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="703" spans="1:34">
+    <row r="703" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>702</v>
       </c>
@@ -58985,7 +59004,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="704" spans="1:34">
+    <row r="704" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>703</v>
       </c>
@@ -59008,7 +59027,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="705" spans="1:12">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>704</v>
       </c>
@@ -59031,7 +59050,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="706" spans="1:12">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>705</v>
       </c>
@@ -59054,7 +59073,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="707" spans="1:12">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>706</v>
       </c>
@@ -59077,7 +59096,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="708" spans="1:12">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>707</v>
       </c>
@@ -59100,7 +59119,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="709" spans="1:12">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>708</v>
       </c>
@@ -59123,7 +59142,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="710" spans="1:12">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>709</v>
       </c>
@@ -59146,7 +59165,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="711" spans="1:12">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>710</v>
       </c>
@@ -59169,7 +59188,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="712" spans="1:12">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>711</v>
       </c>
@@ -59192,7 +59211,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="713" spans="1:12">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>712</v>
       </c>
@@ -59215,7 +59234,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="714" spans="1:12">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>713</v>
       </c>
@@ -59238,7 +59257,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="715" spans="1:12">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>714</v>
       </c>
@@ -59261,7 +59280,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="716" spans="1:12">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>715</v>
       </c>
@@ -59284,7 +59303,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>716</v>
       </c>
@@ -59307,7 +59326,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>717</v>
       </c>
@@ -59321,7 +59340,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="719" spans="1:12">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>718</v>
       </c>
@@ -59335,7 +59354,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="720" spans="1:12">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>719</v>
       </c>
@@ -59352,7 +59371,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>720</v>
       </c>
@@ -59369,7 +59388,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>721</v>
       </c>
@@ -59383,7 +59402,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>722</v>
       </c>
@@ -59397,7 +59416,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>723</v>
       </c>
@@ -59411,7 +59430,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>724</v>
       </c>
@@ -59425,7 +59444,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>725</v>
       </c>
@@ -59439,7 +59458,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>726</v>
       </c>
@@ -59453,7 +59472,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>727</v>
       </c>
@@ -59467,7 +59486,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>728</v>
       </c>
@@ -59481,7 +59500,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>729</v>
       </c>
@@ -59495,7 +59514,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>730</v>
       </c>
@@ -59509,7 +59528,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>731</v>
       </c>
@@ -59523,7 +59542,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>732</v>
       </c>
@@ -59537,7 +59556,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>733</v>
       </c>
@@ -59551,7 +59570,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>734</v>
       </c>
@@ -59565,7 +59584,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>735</v>
       </c>
@@ -59579,7 +59598,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>736</v>
       </c>
@@ -59593,7 +59612,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>737</v>
       </c>
@@ -59607,7 +59626,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>738</v>
       </c>
@@ -59621,7 +59640,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>739</v>
       </c>
@@ -59635,7 +59654,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>740</v>
       </c>
@@ -59649,7 +59668,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>741</v>
       </c>
@@ -59663,7 +59682,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>742</v>
       </c>
@@ -59677,7 +59696,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>743</v>
       </c>
@@ -59691,7 +59710,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>744</v>
       </c>
@@ -59705,7 +59724,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B746">
         <v>742</v>
       </c>
@@ -59713,7 +59732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B747">
         <v>743</v>
       </c>
@@ -59721,7 +59740,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B748">
         <v>744</v>
       </c>
@@ -59729,7 +59748,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B749">
         <v>745</v>
       </c>
@@ -59737,7 +59756,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B750">
         <v>746</v>
       </c>
@@ -59745,7 +59764,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B751">
         <v>747</v>
       </c>
@@ -59753,7 +59772,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B752">
         <v>748</v>
       </c>
@@ -59761,7 +59780,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="753" spans="2:5">
+    <row r="753" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B753">
         <v>749</v>
       </c>
@@ -59772,27 +59791,27 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="754" spans="2:5">
+    <row r="754" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B754">
         <v>750</v>
       </c>
     </row>
-    <row r="755" spans="2:5">
+    <row r="755" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B755">
         <v>751</v>
       </c>
     </row>
-    <row r="756" spans="2:5">
+    <row r="756" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B756">
         <v>752</v>
       </c>
     </row>
-    <row r="757" spans="2:5">
+    <row r="757" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B757">
         <v>753</v>
       </c>
     </row>
-    <row r="758" spans="2:5">
+    <row r="758" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B758">
         <v>754</v>
       </c>
@@ -59800,7 +59819,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="759" spans="2:5">
+    <row r="759" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B759">
         <v>755</v>
       </c>
@@ -59808,7 +59827,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="760" spans="2:5">
+    <row r="760" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B760">
         <v>756</v>
       </c>
@@ -59816,7 +59835,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="761" spans="2:5">
+    <row r="761" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B761">
         <v>757</v>
       </c>
@@ -59824,7 +59843,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="762" spans="2:5">
+    <row r="762" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B762">
         <v>758</v>
       </c>
@@ -59832,37 +59851,37 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="763" spans="2:5">
+    <row r="763" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B763">
         <v>759</v>
       </c>
     </row>
-    <row r="764" spans="2:5">
+    <row r="764" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B764">
         <v>760</v>
       </c>
     </row>
-    <row r="765" spans="2:5">
+    <row r="765" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B765">
         <v>761</v>
       </c>
     </row>
-    <row r="766" spans="2:5">
+    <row r="766" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B766">
         <v>762</v>
       </c>
     </row>
-    <row r="767" spans="2:5">
+    <row r="767" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B767">
         <v>763</v>
       </c>
     </row>
-    <row r="768" spans="2:5">
+    <row r="768" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B768">
         <v>764</v>
       </c>
     </row>
-    <row r="769" spans="2:10">
+    <row r="769" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B769">
         <v>765</v>
       </c>
@@ -59870,28 +59889,28 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="770" spans="2:10">
+    <row r="770" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B770">
         <v>766</v>
       </c>
     </row>
-    <row r="771" spans="2:10">
+    <row r="771" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B771">
         <v>767</v>
       </c>
     </row>
-    <row r="772" spans="2:10">
+    <row r="772" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B772">
         <v>768</v>
       </c>
     </row>
-    <row r="773" spans="2:10">
+    <row r="773" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B773">
         <v>769</v>
       </c>
     </row>
-    <row r="774" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="775" spans="2:10">
+    <row r="774" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="775" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D775" s="20" t="s">
         <v>1849</v>
       </c>
@@ -59902,7 +59921,7 @@
       <c r="I775" s="22"/>
       <c r="J775" s="23"/>
     </row>
-    <row r="776" spans="2:10">
+    <row r="776" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D776" s="24" t="s">
         <v>1850</v>
       </c>
@@ -59913,7 +59932,7 @@
       <c r="I776" s="19"/>
       <c r="J776" s="25"/>
     </row>
-    <row r="777" spans="2:10">
+    <row r="777" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D777" s="24" t="s">
         <v>1851</v>
       </c>
@@ -59924,7 +59943,7 @@
       <c r="I777" s="19"/>
       <c r="J777" s="25"/>
     </row>
-    <row r="778" spans="2:10">
+    <row r="778" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D778" s="24" t="s">
         <v>1852</v>
       </c>
@@ -59935,7 +59954,7 @@
       <c r="I778" s="19"/>
       <c r="J778" s="25"/>
     </row>
-    <row r="779" spans="2:10">
+    <row r="779" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D779" s="24" t="s">
         <v>1853</v>
       </c>
@@ -59946,7 +59965,7 @@
       <c r="I779" s="19"/>
       <c r="J779" s="25"/>
     </row>
-    <row r="780" spans="2:10">
+    <row r="780" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D780" s="24" t="s">
         <v>1854</v>
       </c>
@@ -59957,7 +59976,7 @@
       <c r="I780" s="19"/>
       <c r="J780" s="25"/>
     </row>
-    <row r="781" spans="2:10">
+    <row r="781" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D781" s="24" t="s">
         <v>1855</v>
       </c>
@@ -59968,7 +59987,7 @@
       <c r="I781" s="19"/>
       <c r="J781" s="25"/>
     </row>
-    <row r="782" spans="2:10">
+    <row r="782" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D782" s="24" t="s">
         <v>1856</v>
       </c>
@@ -59979,7 +59998,7 @@
       <c r="I782" s="19"/>
       <c r="J782" s="25"/>
     </row>
-    <row r="783" spans="2:10">
+    <row r="783" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D783" s="24" t="s">
         <v>1857</v>
       </c>
@@ -59990,7 +60009,7 @@
       <c r="I783" s="19"/>
       <c r="J783" s="25"/>
     </row>
-    <row r="784" spans="2:10">
+    <row r="784" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D784" s="24" t="s">
         <v>1858</v>
       </c>
@@ -60001,7 +60020,7 @@
       <c r="I784" s="19"/>
       <c r="J784" s="25"/>
     </row>
-    <row r="785" spans="4:10">
+    <row r="785" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D785" s="24" t="s">
         <v>1859</v>
       </c>
@@ -60012,7 +60031,7 @@
       <c r="I785" s="19"/>
       <c r="J785" s="25"/>
     </row>
-    <row r="786" spans="4:10">
+    <row r="786" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D786" s="24" t="s">
         <v>1860</v>
       </c>
@@ -60023,7 +60042,7 @@
       <c r="I786" s="19"/>
       <c r="J786" s="25"/>
     </row>
-    <row r="787" spans="4:10">
+    <row r="787" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D787" s="24" t="s">
         <v>1861</v>
       </c>
@@ -60034,7 +60053,7 @@
       <c r="I787" s="19"/>
       <c r="J787" s="25"/>
     </row>
-    <row r="788" spans="4:10">
+    <row r="788" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D788" s="24" t="s">
         <v>1862</v>
       </c>
@@ -60045,7 +60064,7 @@
       <c r="I788" s="19"/>
       <c r="J788" s="25"/>
     </row>
-    <row r="789" spans="4:10">
+    <row r="789" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D789" s="24" t="s">
         <v>1863</v>
       </c>
@@ -60056,7 +60075,7 @@
       <c r="I789" s="19"/>
       <c r="J789" s="25"/>
     </row>
-    <row r="790" spans="4:10">
+    <row r="790" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D790" s="24" t="s">
         <v>1864</v>
       </c>
@@ -60067,7 +60086,7 @@
       <c r="I790" s="19"/>
       <c r="J790" s="25"/>
     </row>
-    <row r="791" spans="4:10">
+    <row r="791" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D791" s="24" t="s">
         <v>1865</v>
       </c>
@@ -60078,7 +60097,7 @@
       <c r="I791" s="19"/>
       <c r="J791" s="25"/>
     </row>
-    <row r="792" spans="4:10">
+    <row r="792" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D792" s="24" t="s">
         <v>1866</v>
       </c>
@@ -60089,7 +60108,7 @@
       <c r="I792" s="19"/>
       <c r="J792" s="25"/>
     </row>
-    <row r="793" spans="4:10">
+    <row r="793" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D793" s="24" t="s">
         <v>1867</v>
       </c>
@@ -60100,7 +60119,7 @@
       <c r="I793" s="19"/>
       <c r="J793" s="25"/>
     </row>
-    <row r="794" spans="4:10">
+    <row r="794" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D794" s="24" t="s">
         <v>1868</v>
       </c>
@@ -60111,7 +60130,7 @@
       <c r="I794" s="19"/>
       <c r="J794" s="25"/>
     </row>
-    <row r="795" spans="4:10">
+    <row r="795" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D795" s="24" t="s">
         <v>1869</v>
       </c>
@@ -60122,7 +60141,7 @@
       <c r="I795" s="19"/>
       <c r="J795" s="25"/>
     </row>
-    <row r="796" spans="4:10">
+    <row r="796" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D796" s="24" t="s">
         <v>1870</v>
       </c>
@@ -60133,7 +60152,7 @@
       <c r="I796" s="19"/>
       <c r="J796" s="25"/>
     </row>
-    <row r="797" spans="4:10">
+    <row r="797" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D797" s="24" t="s">
         <v>1871</v>
       </c>
@@ -60144,7 +60163,7 @@
       <c r="I797" s="19"/>
       <c r="J797" s="25"/>
     </row>
-    <row r="798" spans="4:10">
+    <row r="798" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D798" s="24" t="s">
         <v>1872</v>
       </c>
@@ -60155,7 +60174,7 @@
       <c r="I798" s="19"/>
       <c r="J798" s="25"/>
     </row>
-    <row r="799" spans="4:10">
+    <row r="799" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D799" s="24" t="s">
         <v>1873</v>
       </c>
@@ -60166,7 +60185,7 @@
       <c r="I799" s="19"/>
       <c r="J799" s="25"/>
     </row>
-    <row r="800" spans="4:10">
+    <row r="800" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D800" s="24" t="s">
         <v>1874</v>
       </c>
@@ -60177,7 +60196,7 @@
       <c r="I800" s="19"/>
       <c r="J800" s="25"/>
     </row>
-    <row r="801" spans="4:10">
+    <row r="801" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D801" s="24" t="s">
         <v>1875</v>
       </c>
@@ -60188,7 +60207,7 @@
       <c r="I801" s="19"/>
       <c r="J801" s="25"/>
     </row>
-    <row r="802" spans="4:10">
+    <row r="802" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D802" s="24" t="s">
         <v>1876</v>
       </c>
@@ -60199,7 +60218,7 @@
       <c r="I802" s="19"/>
       <c r="J802" s="25"/>
     </row>
-    <row r="803" spans="4:10">
+    <row r="803" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D803" s="24" t="s">
         <v>1877</v>
       </c>
@@ -60210,7 +60229,7 @@
       <c r="I803" s="19"/>
       <c r="J803" s="25"/>
     </row>
-    <row r="804" spans="4:10">
+    <row r="804" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D804" s="24" t="s">
         <v>1878</v>
       </c>
@@ -60221,7 +60240,7 @@
       <c r="I804" s="19"/>
       <c r="J804" s="25"/>
     </row>
-    <row r="805" spans="4:10">
+    <row r="805" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D805" s="24" t="s">
         <v>1879</v>
       </c>
@@ -60232,7 +60251,7 @@
       <c r="I805" s="19"/>
       <c r="J805" s="25"/>
     </row>
-    <row r="806" spans="4:10">
+    <row r="806" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D806" s="24" t="s">
         <v>1880</v>
       </c>
@@ -60243,7 +60262,7 @@
       <c r="I806" s="19"/>
       <c r="J806" s="25"/>
     </row>
-    <row r="807" spans="4:10" ht="14.25" thickBot="1">
+    <row r="807" spans="4:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D807" s="26" t="s">
         <v>1881</v>
       </c>

--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -6364,8 +6364,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F582" sqref="F582"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7693,6 +7693,9 @@
       <c r="Y17">
         <v>6</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>0</v>
       </c>
@@ -8682,6 +8685,9 @@
       <c r="V30" t="s">
         <v>1452</v>
       </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
       <c r="Y30">
         <v>8</v>
       </c>
@@ -9283,6 +9289,9 @@
       <c r="X38" s="11">
         <v>3</v>
       </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
       <c r="Z38">
         <v>13</v>
       </c>
@@ -9351,6 +9360,9 @@
       <c r="V39" t="s">
         <v>1452</v>
       </c>
+      <c r="X39" s="11">
+        <v>0</v>
+      </c>
       <c r="Y39">
         <v>7</v>
       </c>
@@ -10174,6 +10186,9 @@
       <c r="V50" t="s">
         <v>1452</v>
       </c>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
       <c r="Y50">
         <v>8</v>
       </c>
@@ -10840,8 +10855,14 @@
       <c r="V59" t="s">
         <v>1452</v>
       </c>
+      <c r="X59" s="11">
+        <v>0</v>
+      </c>
       <c r="Y59">
         <v>9</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -10917,6 +10938,9 @@
       <c r="Y60">
         <v>9</v>
       </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
       <c r="AB60">
         <v>0</v>
       </c>
@@ -11065,6 +11089,9 @@
       <c r="Y62">
         <v>8</v>
       </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
       <c r="AB62">
         <v>1</v>
       </c>
@@ -12418,6 +12445,9 @@
       <c r="V80" t="s">
         <v>1452</v>
       </c>
+      <c r="X80" s="11">
+        <v>0</v>
+      </c>
       <c r="Y80">
         <v>8</v>
       </c>
@@ -13839,6 +13869,9 @@
       <c r="Y99">
         <v>9</v>
       </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
       <c r="AB99">
         <v>0</v>
       </c>
@@ -13978,6 +14011,9 @@
       <c r="V101" t="s">
         <v>1447</v>
       </c>
+      <c r="X101" s="11">
+        <v>0</v>
+      </c>
       <c r="Y101">
         <v>8</v>
       </c>
@@ -14049,6 +14085,9 @@
       <c r="V102" t="s">
         <v>1447</v>
       </c>
+      <c r="X102" s="11">
+        <v>0</v>
+      </c>
       <c r="Y102">
         <v>4</v>
       </c>
@@ -14792,6 +14831,9 @@
       <c r="Y112">
         <v>7</v>
       </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
       <c r="AB112">
         <v>1</v>
       </c>
@@ -15535,6 +15577,9 @@
       <c r="Y122">
         <v>12</v>
       </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
       <c r="AB122">
         <v>0</v>
       </c>
@@ -16814,6 +16859,9 @@
       <c r="V139" t="s">
         <v>1449</v>
       </c>
+      <c r="X139" s="11">
+        <v>0</v>
+      </c>
       <c r="Y139">
         <v>8</v>
       </c>
@@ -17125,6 +17173,9 @@
       <c r="Y143">
         <v>2</v>
       </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
       <c r="AB143">
         <v>0</v>
       </c>
@@ -17270,6 +17321,9 @@
       <c r="Y145">
         <v>3</v>
       </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
       <c r="AB145">
         <v>1</v>
       </c>
@@ -17341,6 +17395,9 @@
       <c r="Y146">
         <v>3</v>
       </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
       <c r="AB146">
         <v>1</v>
       </c>
@@ -18845,6 +18902,9 @@
       <c r="Y166">
         <v>6</v>
       </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
       <c r="AB166">
         <v>0</v>
       </c>
@@ -19384,6 +19444,9 @@
       <c r="V173" t="s">
         <v>1452</v>
       </c>
+      <c r="X173" s="11">
+        <v>0</v>
+      </c>
       <c r="Y173">
         <v>11</v>
       </c>
@@ -19553,6 +19616,9 @@
       <c r="Y175">
         <v>6</v>
       </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
       <c r="AB175">
         <v>0</v>
       </c>
@@ -21409,6 +21475,9 @@
       <c r="Y200">
         <v>6</v>
       </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
       <c r="AB200">
         <v>1</v>
       </c>
@@ -21557,6 +21626,9 @@
       <c r="Y202">
         <v>15</v>
       </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
       <c r="AB202">
         <v>1</v>
       </c>
@@ -21631,6 +21703,9 @@
       <c r="Y203">
         <v>8</v>
       </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
       <c r="AB203">
         <v>0</v>
       </c>
@@ -21702,6 +21777,9 @@
       <c r="Y204">
         <v>9</v>
       </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
       <c r="AB204">
         <v>0</v>
       </c>
@@ -21924,6 +22002,9 @@
       <c r="Y207">
         <v>10</v>
       </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
       <c r="AB207">
         <v>1</v>
       </c>
@@ -21995,6 +22076,9 @@
       <c r="Y208">
         <v>11</v>
       </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
       <c r="AB208">
         <v>1</v>
       </c>
@@ -22223,6 +22307,9 @@
       <c r="Y211">
         <v>9</v>
       </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
       <c r="AB211">
         <v>0</v>
       </c>
@@ -22300,6 +22387,9 @@
       <c r="Y212">
         <v>6</v>
       </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
       <c r="AB212">
         <v>0</v>
       </c>
@@ -22374,6 +22464,9 @@
       <c r="Y213">
         <v>10</v>
       </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
       <c r="AB213">
         <v>1</v>
       </c>
@@ -22442,8 +22535,14 @@
       <c r="V214" t="s">
         <v>1452</v>
       </c>
+      <c r="X214" s="11">
+        <v>0</v>
+      </c>
       <c r="Y214">
         <v>8</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
       </c>
       <c r="AB214">
         <v>0</v>
@@ -22519,6 +22618,9 @@
       <c r="Y215">
         <v>4</v>
       </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
       <c r="AB215">
         <v>0</v>
       </c>
@@ -22593,6 +22695,9 @@
       <c r="Y216">
         <v>5</v>
       </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
       <c r="AB216">
         <v>0</v>
       </c>
@@ -22667,6 +22772,9 @@
       <c r="Y217">
         <v>9</v>
       </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
       <c r="AB217">
         <v>1</v>
       </c>
@@ -22883,6 +22991,9 @@
       <c r="V220" t="s">
         <v>1452</v>
       </c>
+      <c r="X220" s="11">
+        <v>0</v>
+      </c>
       <c r="Y220">
         <v>7</v>
       </c>
@@ -22960,6 +23071,9 @@
       <c r="Y221">
         <v>11</v>
       </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
       <c r="AB221">
         <v>1</v>
       </c>
@@ -23031,6 +23145,9 @@
       <c r="Y222">
         <v>8</v>
       </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
       <c r="AB222">
         <v>0</v>
       </c>
@@ -23105,6 +23222,9 @@
       <c r="Y223">
         <v>9</v>
       </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
       <c r="AB223">
         <v>0</v>
       </c>
@@ -23179,6 +23299,9 @@
       <c r="Y224">
         <v>9</v>
       </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
       <c r="AB224">
         <v>1</v>
       </c>
@@ -23330,6 +23453,9 @@
       <c r="Y226">
         <v>8</v>
       </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
       <c r="AB226">
         <v>0</v>
       </c>
@@ -23398,8 +23524,14 @@
       <c r="V227" t="s">
         <v>1452</v>
       </c>
+      <c r="X227" s="11">
+        <v>0</v>
+      </c>
       <c r="Y227">
         <v>8</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
       </c>
       <c r="AB227">
         <v>0</v>
@@ -23472,6 +23604,9 @@
       <c r="Y228">
         <v>8</v>
       </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
       <c r="AB228">
         <v>1</v>
       </c>
@@ -23543,6 +23678,9 @@
       <c r="Y229">
         <v>8</v>
       </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
       <c r="AB229">
         <v>0</v>
       </c>
@@ -23614,6 +23752,9 @@
       <c r="Y230">
         <v>11</v>
       </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
       <c r="AB230">
         <v>0</v>
       </c>
@@ -23685,6 +23826,9 @@
       <c r="Y231">
         <v>9</v>
       </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
       <c r="AB231">
         <v>0</v>
       </c>
@@ -23756,6 +23900,9 @@
       <c r="Y232">
         <v>13</v>
       </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
       <c r="AB232">
         <v>1</v>
       </c>
@@ -23830,6 +23977,9 @@
       <c r="Y233">
         <v>9</v>
       </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
       <c r="AB233">
         <v>0</v>
       </c>
@@ -23901,6 +24051,9 @@
       <c r="Y234">
         <v>8</v>
       </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
       <c r="AB234">
         <v>1</v>
       </c>
@@ -24123,6 +24276,9 @@
       <c r="Y237">
         <v>13</v>
       </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
       <c r="AB237">
         <v>0</v>
       </c>
@@ -24570,6 +24726,9 @@
       <c r="Y243">
         <v>9</v>
       </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
       <c r="AB243">
         <v>1</v>
       </c>
@@ -24647,6 +24806,9 @@
       <c r="Y244">
         <v>13</v>
       </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
       <c r="AB244">
         <v>1</v>
       </c>
@@ -24724,6 +24886,9 @@
       <c r="Y245">
         <v>6</v>
       </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
       <c r="AB245">
         <v>0</v>
       </c>
@@ -24798,6 +24963,9 @@
       <c r="Y246">
         <v>10</v>
       </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
       <c r="AB246">
         <v>0</v>
       </c>
@@ -24940,6 +25108,9 @@
       <c r="V248" t="s">
         <v>1452</v>
       </c>
+      <c r="X248" s="11">
+        <v>0</v>
+      </c>
       <c r="Y248">
         <v>6</v>
       </c>
@@ -25242,6 +25413,9 @@
       <c r="Y252">
         <v>6</v>
       </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
       <c r="AB252">
         <v>1</v>
       </c>
@@ -25313,6 +25487,9 @@
       <c r="Y253">
         <v>8</v>
       </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
       <c r="AB253">
         <v>0</v>
       </c>
@@ -25384,6 +25561,9 @@
       <c r="Y254">
         <v>8</v>
       </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
       <c r="AB254">
         <v>0</v>
       </c>
@@ -25680,6 +25860,9 @@
       <c r="Y258">
         <v>5</v>
       </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
       <c r="AB258">
         <v>0</v>
       </c>
@@ -25751,6 +25934,9 @@
       <c r="Y259">
         <v>8</v>
       </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
       <c r="AB259">
         <v>0</v>
       </c>
@@ -26491,6 +26677,9 @@
       <c r="Y269">
         <v>2</v>
       </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
       <c r="AB269">
         <v>1</v>
       </c>
@@ -26716,6 +26905,9 @@
       <c r="Y272">
         <v>6</v>
       </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
       <c r="AB272">
         <v>1</v>
       </c>
@@ -26787,6 +26979,9 @@
       <c r="Y273">
         <v>8</v>
       </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
       <c r="AB273">
         <v>1</v>
       </c>
@@ -27006,6 +27201,9 @@
       <c r="Y276">
         <v>9</v>
       </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
       <c r="AB276">
         <v>0</v>
       </c>
@@ -27077,6 +27275,9 @@
       <c r="Y277">
         <v>9</v>
       </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
       <c r="AB277">
         <v>1</v>
       </c>
@@ -27444,6 +27645,9 @@
       <c r="Y282">
         <v>2</v>
       </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
       <c r="AB282">
         <v>1</v>
       </c>
@@ -27509,6 +27713,9 @@
       <c r="V283" t="s">
         <v>1449</v>
       </c>
+      <c r="X283" s="11">
+        <v>0</v>
+      </c>
       <c r="Y283">
         <v>7</v>
       </c>
@@ -27663,6 +27870,9 @@
       <c r="Y285">
         <v>5</v>
       </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
       <c r="AB285">
         <v>0</v>
       </c>
@@ -28113,6 +28323,9 @@
       <c r="Y291">
         <v>7</v>
       </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
       <c r="AB291">
         <v>0</v>
       </c>
@@ -28190,6 +28403,9 @@
       <c r="Y292">
         <v>7</v>
       </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
       <c r="AB292">
         <v>0</v>
       </c>
@@ -28655,6 +28871,9 @@
       <c r="Y298">
         <v>11</v>
       </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
       <c r="AB298">
         <v>0</v>
       </c>
@@ -29665,6 +29884,9 @@
       <c r="Y311">
         <v>4</v>
       </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
       <c r="AB311">
         <v>0</v>
       </c>
@@ -29887,6 +30109,9 @@
       <c r="Y314">
         <v>12</v>
       </c>
+      <c r="Z314">
+        <v>0</v>
+      </c>
       <c r="AB314">
         <v>0</v>
       </c>
@@ -29961,6 +30186,9 @@
       <c r="Y315">
         <v>6</v>
       </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
       <c r="AB315">
         <v>0</v>
       </c>
@@ -30035,6 +30263,9 @@
       <c r="Y316">
         <v>13</v>
       </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
       <c r="AB316">
         <v>1</v>
       </c>
@@ -30109,6 +30340,9 @@
       <c r="Y317">
         <v>15</v>
       </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
       <c r="AB317">
         <v>0</v>
       </c>
@@ -30183,6 +30417,9 @@
       <c r="Y318">
         <v>15</v>
       </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
       <c r="AB318">
         <v>0</v>
       </c>
@@ -30260,6 +30497,9 @@
       <c r="Y319">
         <v>15</v>
       </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
       <c r="AB319">
         <v>0</v>
       </c>
@@ -30334,6 +30574,9 @@
       <c r="Y320">
         <v>15</v>
       </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
       <c r="AB320">
         <v>0</v>
       </c>
@@ -30405,6 +30648,9 @@
       <c r="Y321">
         <v>15</v>
       </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
       <c r="AB321">
         <v>1</v>
       </c>
@@ -30482,6 +30728,9 @@
       <c r="Y322">
         <v>15</v>
       </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
       <c r="AB322">
         <v>0</v>
       </c>
@@ -30559,6 +30808,9 @@
       <c r="Y323">
         <v>15</v>
       </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
       <c r="AB323">
         <v>0</v>
       </c>
@@ -30630,6 +30882,9 @@
       <c r="Y324">
         <v>15</v>
       </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
       <c r="AB324">
         <v>1</v>
       </c>
@@ -30704,6 +30959,9 @@
       <c r="Y325">
         <v>15</v>
       </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
       <c r="AB325">
         <v>0</v>
       </c>
@@ -30775,6 +31033,9 @@
       <c r="Y326">
         <v>15</v>
       </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
       <c r="AB326">
         <v>0</v>
       </c>
@@ -31675,6 +31936,9 @@
       <c r="Y338">
         <v>3</v>
       </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
       <c r="AB338">
         <v>1</v>
       </c>
@@ -31746,6 +32010,9 @@
       <c r="Y339">
         <v>3</v>
       </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
       <c r="AB339">
         <v>0</v>
       </c>
@@ -31817,6 +32084,9 @@
       <c r="Y340">
         <v>4</v>
       </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
       <c r="AB340">
         <v>1</v>
       </c>
@@ -33884,6 +34154,9 @@
       <c r="V367" t="s">
         <v>1452</v>
       </c>
+      <c r="X367" s="11">
+        <v>0</v>
+      </c>
       <c r="Y367">
         <v>9</v>
       </c>
@@ -34035,6 +34308,9 @@
       <c r="Y369">
         <v>2</v>
       </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
       <c r="AB369">
         <v>1</v>
       </c>
@@ -34177,6 +34453,9 @@
       <c r="X371" s="11">
         <v>4</v>
       </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
       <c r="Z371">
         <v>11</v>
       </c>
@@ -34399,6 +34678,9 @@
       <c r="Y374">
         <v>8</v>
       </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
       <c r="AB374">
         <v>1</v>
       </c>
@@ -35613,6 +35895,9 @@
       <c r="Y390">
         <v>5</v>
       </c>
+      <c r="Z390">
+        <v>0</v>
+      </c>
       <c r="AB390">
         <v>0</v>
       </c>
@@ -35915,6 +36200,9 @@
       <c r="Y394">
         <v>8</v>
       </c>
+      <c r="Z394">
+        <v>0</v>
+      </c>
       <c r="AB394">
         <v>0</v>
       </c>
@@ -35989,6 +36277,9 @@
       <c r="Y395">
         <v>12</v>
       </c>
+      <c r="Z395">
+        <v>0</v>
+      </c>
       <c r="AB395">
         <v>0</v>
       </c>
@@ -37031,6 +37322,9 @@
       <c r="Y409">
         <v>5</v>
       </c>
+      <c r="Z409">
+        <v>0</v>
+      </c>
       <c r="AB409">
         <v>0</v>
       </c>
@@ -37404,6 +37698,9 @@
       <c r="Y414">
         <v>9</v>
       </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
       <c r="AB414">
         <v>1</v>
       </c>
@@ -37626,6 +37923,9 @@
       <c r="Y417">
         <v>11</v>
       </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
       <c r="AB417">
         <v>1</v>
       </c>
@@ -37845,6 +38145,9 @@
       <c r="Y420">
         <v>11</v>
       </c>
+      <c r="Z420">
+        <v>0</v>
+      </c>
       <c r="AB420">
         <v>1</v>
       </c>
@@ -37919,6 +38222,9 @@
       <c r="Y421">
         <v>10</v>
       </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
       <c r="AB421">
         <v>1</v>
       </c>
@@ -37987,8 +38293,14 @@
       <c r="V422" t="s">
         <v>1452</v>
       </c>
+      <c r="X422" s="11">
+        <v>0</v>
+      </c>
       <c r="Y422">
         <v>8</v>
+      </c>
+      <c r="Z422">
+        <v>0</v>
       </c>
       <c r="AB422">
         <v>0</v>
@@ -38064,6 +38376,9 @@
       <c r="Y423">
         <v>8</v>
       </c>
+      <c r="Z423">
+        <v>0</v>
+      </c>
       <c r="AB423">
         <v>1</v>
       </c>
@@ -38665,6 +38980,9 @@
       <c r="Y431">
         <v>11</v>
       </c>
+      <c r="Z431">
+        <v>0</v>
+      </c>
       <c r="AB431">
         <v>0</v>
       </c>
@@ -38739,6 +39057,9 @@
       <c r="Y432">
         <v>12</v>
       </c>
+      <c r="Z432">
+        <v>0</v>
+      </c>
       <c r="AB432">
         <v>0</v>
       </c>
@@ -38813,6 +39134,9 @@
       <c r="Y433">
         <v>11</v>
       </c>
+      <c r="Z433">
+        <v>0</v>
+      </c>
       <c r="AB433">
         <v>1</v>
       </c>
@@ -38961,6 +39285,9 @@
       <c r="Y435">
         <v>6</v>
       </c>
+      <c r="Z435">
+        <v>0</v>
+      </c>
       <c r="AB435">
         <v>0</v>
       </c>
@@ -39032,6 +39359,9 @@
       <c r="Y436">
         <v>8</v>
       </c>
+      <c r="Z436">
+        <v>0</v>
+      </c>
       <c r="AB436">
         <v>0</v>
       </c>
@@ -39701,6 +40031,12 @@
       <c r="X445" s="11">
         <v>5</v>
       </c>
+      <c r="Y445">
+        <v>0</v>
+      </c>
+      <c r="Z445">
+        <v>0</v>
+      </c>
       <c r="AB445">
         <v>0</v>
       </c>
@@ -40142,6 +40478,9 @@
       <c r="Y451">
         <v>3</v>
       </c>
+      <c r="Z451">
+        <v>0</v>
+      </c>
       <c r="AB451">
         <v>0</v>
       </c>
@@ -40281,6 +40620,9 @@
       <c r="V453" t="s">
         <v>1452</v>
       </c>
+      <c r="X453" s="11">
+        <v>0</v>
+      </c>
       <c r="Y453">
         <v>7</v>
       </c>
@@ -41563,6 +41905,9 @@
       <c r="Y470">
         <v>10</v>
       </c>
+      <c r="Z470">
+        <v>0</v>
+      </c>
       <c r="AB470">
         <v>0</v>
       </c>
@@ -42493,6 +42838,9 @@
       <c r="Y482">
         <v>7</v>
       </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
       <c r="AB482">
         <v>1</v>
       </c>
@@ -42718,6 +43066,9 @@
       <c r="Y485">
         <v>6</v>
       </c>
+      <c r="Z485">
+        <v>0</v>
+      </c>
       <c r="AB485">
         <v>1</v>
       </c>
@@ -44234,6 +44585,9 @@
       <c r="Y505">
         <v>6</v>
       </c>
+      <c r="Z505">
+        <v>0</v>
+      </c>
       <c r="AB505">
         <v>0</v>
       </c>
@@ -45791,6 +46145,9 @@
       <c r="Y526">
         <v>8</v>
       </c>
+      <c r="Z526">
+        <v>0</v>
+      </c>
       <c r="AB526">
         <v>0</v>
       </c>
@@ -49874,6 +50231,9 @@
       <c r="V580" t="s">
         <v>1446</v>
       </c>
+      <c r="X580" s="11">
+        <v>0</v>
+      </c>
       <c r="Y580">
         <v>8</v>
       </c>
@@ -49948,6 +50308,9 @@
       <c r="V581" t="s">
         <v>1449</v>
       </c>
+      <c r="X581" s="11">
+        <v>0</v>
+      </c>
       <c r="Y581">
         <v>8</v>
       </c>
@@ -50324,6 +50687,9 @@
       <c r="V586" t="s">
         <v>1447</v>
       </c>
+      <c r="X586" s="11">
+        <v>0</v>
+      </c>
       <c r="Y586">
         <v>7</v>
       </c>
@@ -50549,6 +50915,9 @@
       <c r="V589" t="s">
         <v>1446</v>
       </c>
+      <c r="X589" s="11">
+        <v>0</v>
+      </c>
       <c r="Y589">
         <v>6</v>
       </c>
@@ -51446,6 +51815,9 @@
       <c r="V601" t="s">
         <v>1449</v>
       </c>
+      <c r="X601" s="11">
+        <v>0</v>
+      </c>
       <c r="Y601">
         <v>8</v>
       </c>
@@ -51816,6 +52188,9 @@
       <c r="X606" s="11">
         <v>3</v>
       </c>
+      <c r="Y606">
+        <v>0</v>
+      </c>
       <c r="Z606">
         <v>13</v>
       </c>
@@ -58479,6 +58854,9 @@
       </c>
       <c r="V695" t="s">
         <v>1452</v>
+      </c>
+      <c r="X695" s="11">
+        <v>0</v>
       </c>
       <c r="Y695">
         <v>10</v>

--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="将星録" sheetId="10" r:id="rId1"/>
+    <sheet name="城" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5520" uniqueCount="1942">
   <si>
     <t>和田</t>
   </si>
@@ -5777,6 +5778,184 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>アイマイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>八代</t>
+  </si>
+  <si>
+    <t>都於郡</t>
+  </si>
+  <si>
+    <t>佐賀</t>
+  </si>
+  <si>
+    <t>立花山</t>
+  </si>
+  <si>
+    <t>中津</t>
+  </si>
+  <si>
+    <t>府内</t>
+  </si>
+  <si>
+    <t>山口</t>
+  </si>
+  <si>
+    <t>湯築</t>
+  </si>
+  <si>
+    <t>岡豊</t>
+  </si>
+  <si>
+    <t>福光</t>
+  </si>
+  <si>
+    <t>吉田郡山</t>
+  </si>
+  <si>
+    <t>福山</t>
+  </si>
+  <si>
+    <t>天霧</t>
+  </si>
+  <si>
+    <t>岡山</t>
+  </si>
+  <si>
+    <t>勝瑞</t>
+  </si>
+  <si>
+    <t>月山富田</t>
+  </si>
+  <si>
+    <t>津山</t>
+  </si>
+  <si>
+    <t>姫路</t>
+  </si>
+  <si>
+    <t>雑賀</t>
+  </si>
+  <si>
+    <t>鳥取</t>
+  </si>
+  <si>
+    <t>八上</t>
+  </si>
+  <si>
+    <t>大坂</t>
+  </si>
+  <si>
+    <t>大和郡山</t>
+  </si>
+  <si>
+    <t>二条</t>
+  </si>
+  <si>
+    <t>建部山</t>
+  </si>
+  <si>
+    <t>大河内</t>
+  </si>
+  <si>
+    <t>観音寺</t>
+  </si>
+  <si>
+    <t>小谷</t>
+  </si>
+  <si>
+    <t>那古野</t>
+  </si>
+  <si>
+    <t>岡崎</t>
+  </si>
+  <si>
+    <t>稲葉山</t>
+  </si>
+  <si>
+    <t>一乗谷</t>
+  </si>
+  <si>
+    <t>浜松</t>
+  </si>
+  <si>
+    <t>御山</t>
+  </si>
+  <si>
+    <t>駿府</t>
+  </si>
+  <si>
+    <t>七尾</t>
+  </si>
+  <si>
+    <t>富山</t>
+  </si>
+  <si>
+    <t>深志</t>
+  </si>
+  <si>
+    <t>躑躅ヶ崎</t>
+  </si>
+  <si>
+    <t>小田原</t>
+  </si>
+  <si>
+    <t>海津</t>
+  </si>
+  <si>
+    <t>久留里</t>
+  </si>
+  <si>
+    <t>箕輪</t>
+  </si>
+  <si>
+    <t>河越</t>
+  </si>
+  <si>
+    <t>春日山</t>
+  </si>
+  <si>
+    <t>佐倉</t>
+  </si>
+  <si>
+    <t>与板</t>
+  </si>
+  <si>
+    <t>水戸</t>
+  </si>
+  <si>
+    <t>棚倉</t>
+  </si>
+  <si>
+    <t>小高</t>
+  </si>
+  <si>
+    <t>山形</t>
+  </si>
+  <si>
+    <t>岩出山</t>
+  </si>
+  <si>
+    <t>久保田</t>
+  </si>
+  <si>
+    <t>高水寺</t>
+  </si>
+  <si>
+    <t>弘前</t>
+  </si>
+  <si>
+    <t>三戸</t>
+  </si>
+  <si>
+    <t>城番号</t>
+    <rPh sb="0" eb="3">
+      <t>シロバンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6364,7 +6543,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -60657,4 +60836,538 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>974</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/武将一覧.xlsx
+++ b/武将一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="将星録" sheetId="10" r:id="rId1"/>
@@ -5766,7 +5766,191 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>香川元景 か香川之景 か曖昧。</t>
+    <t>内</t>
+  </si>
+  <si>
+    <t>八代</t>
+  </si>
+  <si>
+    <t>都於郡</t>
+  </si>
+  <si>
+    <t>佐賀</t>
+  </si>
+  <si>
+    <t>立花山</t>
+  </si>
+  <si>
+    <t>中津</t>
+  </si>
+  <si>
+    <t>府内</t>
+  </si>
+  <si>
+    <t>山口</t>
+  </si>
+  <si>
+    <t>湯築</t>
+  </si>
+  <si>
+    <t>岡豊</t>
+  </si>
+  <si>
+    <t>福光</t>
+  </si>
+  <si>
+    <t>吉田郡山</t>
+  </si>
+  <si>
+    <t>福山</t>
+  </si>
+  <si>
+    <t>天霧</t>
+  </si>
+  <si>
+    <t>岡山</t>
+  </si>
+  <si>
+    <t>勝瑞</t>
+  </si>
+  <si>
+    <t>月山富田</t>
+  </si>
+  <si>
+    <t>津山</t>
+  </si>
+  <si>
+    <t>姫路</t>
+  </si>
+  <si>
+    <t>雑賀</t>
+  </si>
+  <si>
+    <t>鳥取</t>
+  </si>
+  <si>
+    <t>八上</t>
+  </si>
+  <si>
+    <t>大坂</t>
+  </si>
+  <si>
+    <t>大和郡山</t>
+  </si>
+  <si>
+    <t>二条</t>
+  </si>
+  <si>
+    <t>建部山</t>
+  </si>
+  <si>
+    <t>大河内</t>
+  </si>
+  <si>
+    <t>観音寺</t>
+  </si>
+  <si>
+    <t>小谷</t>
+  </si>
+  <si>
+    <t>那古野</t>
+  </si>
+  <si>
+    <t>岡崎</t>
+  </si>
+  <si>
+    <t>稲葉山</t>
+  </si>
+  <si>
+    <t>一乗谷</t>
+  </si>
+  <si>
+    <t>浜松</t>
+  </si>
+  <si>
+    <t>御山</t>
+  </si>
+  <si>
+    <t>駿府</t>
+  </si>
+  <si>
+    <t>七尾</t>
+  </si>
+  <si>
+    <t>富山</t>
+  </si>
+  <si>
+    <t>深志</t>
+  </si>
+  <si>
+    <t>躑躅ヶ崎</t>
+  </si>
+  <si>
+    <t>小田原</t>
+  </si>
+  <si>
+    <t>海津</t>
+  </si>
+  <si>
+    <t>久留里</t>
+  </si>
+  <si>
+    <t>箕輪</t>
+  </si>
+  <si>
+    <t>河越</t>
+  </si>
+  <si>
+    <t>春日山</t>
+  </si>
+  <si>
+    <t>佐倉</t>
+  </si>
+  <si>
+    <t>与板</t>
+  </si>
+  <si>
+    <t>水戸</t>
+  </si>
+  <si>
+    <t>棚倉</t>
+  </si>
+  <si>
+    <t>小高</t>
+  </si>
+  <si>
+    <t>山形</t>
+  </si>
+  <si>
+    <t>岩出山</t>
+  </si>
+  <si>
+    <t>久保田</t>
+  </si>
+  <si>
+    <t>高水寺</t>
+  </si>
+  <si>
+    <t>弘前</t>
+  </si>
+  <si>
+    <t>三戸</t>
+  </si>
+  <si>
+    <t>城番号</t>
+    <rPh sb="0" eb="3">
+      <t>シロバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生年が息子の香川之景(1527～)になってるが、列伝や将星録辞典からも制作側は香川元景本人を意図している。</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ムスコ</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>カガワ</t>
     </rPh>
@@ -5776,186 +5960,41 @@
     <rPh sb="9" eb="10">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>アイマイ</t>
+    <rPh sb="24" eb="26">
+      <t>レツデン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内</t>
-  </si>
-  <si>
-    <t>八代</t>
-  </si>
-  <si>
-    <t>都於郡</t>
-  </si>
-  <si>
-    <t>佐賀</t>
-  </si>
-  <si>
-    <t>立花山</t>
-  </si>
-  <si>
-    <t>中津</t>
-  </si>
-  <si>
-    <t>府内</t>
-  </si>
-  <si>
-    <t>山口</t>
-  </si>
-  <si>
-    <t>湯築</t>
-  </si>
-  <si>
-    <t>岡豊</t>
-  </si>
-  <si>
-    <t>福光</t>
-  </si>
-  <si>
-    <t>吉田郡山</t>
-  </si>
-  <si>
-    <t>福山</t>
-  </si>
-  <si>
-    <t>天霧</t>
-  </si>
-  <si>
-    <t>岡山</t>
-  </si>
-  <si>
-    <t>勝瑞</t>
-  </si>
-  <si>
-    <t>月山富田</t>
-  </si>
-  <si>
-    <t>津山</t>
-  </si>
-  <si>
-    <t>姫路</t>
-  </si>
-  <si>
-    <t>雑賀</t>
-  </si>
-  <si>
-    <t>鳥取</t>
-  </si>
-  <si>
-    <t>八上</t>
-  </si>
-  <si>
-    <t>大坂</t>
-  </si>
-  <si>
-    <t>大和郡山</t>
-  </si>
-  <si>
-    <t>二条</t>
-  </si>
-  <si>
-    <t>建部山</t>
-  </si>
-  <si>
-    <t>大河内</t>
-  </si>
-  <si>
-    <t>観音寺</t>
-  </si>
-  <si>
-    <t>小谷</t>
-  </si>
-  <si>
-    <t>那古野</t>
-  </si>
-  <si>
-    <t>岡崎</t>
-  </si>
-  <si>
-    <t>稲葉山</t>
-  </si>
-  <si>
-    <t>一乗谷</t>
-  </si>
-  <si>
-    <t>浜松</t>
-  </si>
-  <si>
-    <t>御山</t>
-  </si>
-  <si>
-    <t>駿府</t>
-  </si>
-  <si>
-    <t>七尾</t>
-  </si>
-  <si>
-    <t>富山</t>
-  </si>
-  <si>
-    <t>深志</t>
-  </si>
-  <si>
-    <t>躑躅ヶ崎</t>
-  </si>
-  <si>
-    <t>小田原</t>
-  </si>
-  <si>
-    <t>海津</t>
-  </si>
-  <si>
-    <t>久留里</t>
-  </si>
-  <si>
-    <t>箕輪</t>
-  </si>
-  <si>
-    <t>河越</t>
-  </si>
-  <si>
-    <t>春日山</t>
-  </si>
-  <si>
-    <t>佐倉</t>
-  </si>
-  <si>
-    <t>与板</t>
-  </si>
-  <si>
-    <t>水戸</t>
-  </si>
-  <si>
-    <t>棚倉</t>
-  </si>
-  <si>
-    <t>小高</t>
-  </si>
-  <si>
-    <t>山形</t>
-  </si>
-  <si>
-    <t>岩出山</t>
-  </si>
-  <si>
-    <t>久保田</t>
-  </si>
-  <si>
-    <t>高水寺</t>
-  </si>
-  <si>
-    <t>弘前</t>
-  </si>
-  <si>
-    <t>三戸</t>
-  </si>
-  <si>
-    <t>城番号</t>
-    <rPh sb="0" eb="3">
-      <t>シロバンゴウ</t>
+    <rPh sb="27" eb="28">
+      <t>マサル</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カガワ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6543,8 +6582,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AM807"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F582" sqref="F582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50515,7 +50554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:36" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>581</v>
       </c>
@@ -50529,7 +50568,7 @@
         <v>57</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1883</v>
+        <v>1941</v>
       </c>
       <c r="G582" s="2">
         <v>1541</v>
@@ -60842,7 +60881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -60850,7 +60889,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -60858,7 +60897,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -60874,7 +60913,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -60882,7 +60921,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -60890,7 +60929,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -60898,7 +60937,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -60906,7 +60945,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -60914,7 +60953,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -60922,7 +60961,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -60938,7 +60977,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -60946,7 +60985,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -60954,7 +60993,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -60962,7 +61001,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -60970,7 +61009,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -60978,7 +61017,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -60986,7 +61025,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -60994,7 +61033,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -61002,7 +61041,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -61010,7 +61049,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -61018,7 +61057,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -61026,7 +61065,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -61034,7 +61073,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -61042,7 +61081,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -61050,7 +61089,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -61058,7 +61097,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -61066,7 +61105,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -61074,7 +61113,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -61082,7 +61121,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -61090,7 +61129,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -61098,7 +61137,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -61106,7 +61145,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -61114,7 +61153,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -61122,7 +61161,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -61130,7 +61169,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -61138,7 +61177,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -61146,7 +61185,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -61162,7 +61201,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -61170,7 +61209,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -61178,7 +61217,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -61186,7 +61225,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -61194,7 +61233,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -61202,7 +61241,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -61210,7 +61249,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -61218,7 +61257,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -61226,7 +61265,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -61234,7 +61273,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -61242,7 +61281,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -61250,7 +61289,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -61266,7 +61305,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -61274,7 +61313,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -61282,7 +61321,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -61306,7 +61345,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -61314,7 +61353,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -61322,7 +61361,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -61330,7 +61369,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -61338,7 +61377,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -61346,7 +61385,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -61354,7 +61393,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
